--- a/รายวิชา1-67/(ตารางเปล่า)67-1-ตารางเรียนนศ.xlsx
+++ b/รายวิชา1-67/(ตารางเปล่า)67-1-ตารางเรียนนศ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sds\รายวิชา1-67\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7784FF-3102-4EBC-85C0-3CC1F345B3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8EF38A-D72E-4F02-B9CB-792D54D690DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="793" xr2:uid="{590A33BD-ABAD-4A13-A627-5B233B825526}"/>
+    <workbookView xWindow="6288" yWindow="1332" windowWidth="17280" windowHeight="8880" tabRatio="793" activeTab="5" xr2:uid="{590A33BD-ABAD-4A13-A627-5B233B825526}"/>
   </bookViews>
   <sheets>
     <sheet name="ปวช1-1 k" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="141">
   <si>
     <t/>
   </si>
@@ -645,7 +645,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,6 +667,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,7 +1060,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1494,18 +1500,99 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1518,78 +1605,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1599,6 +1614,12 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1614,12 +1635,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1629,19 +1644,76 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2518,8 +2590,8 @@
   </sheetPr>
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="78" zoomScaleNormal="78" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="F11" zoomScale="78" zoomScaleNormal="78" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27:S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -3574,16 +3646,16 @@
       <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="176" t="s">
+      <c r="J1" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="176" t="s">
+      <c r="K1" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="173" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -3601,11 +3673,11 @@
       <c r="R1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="177" t="s">
+      <c r="S1" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
       <c r="V1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3747,15 +3819,15 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="24" customHeight="1">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
       <c r="H4" s="172"/>
       <c r="I4" s="112" t="s">
         <v>88</v>
@@ -3803,16 +3875,16 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="24" customHeight="1">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="156"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="169"/>
       <c r="I5" s="112" t="s">
         <v>86</v>
       </c>
@@ -3859,16 +3931,16 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="24" customHeight="1">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="156"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="169"/>
       <c r="I6" s="112" t="s">
         <v>90</v>
       </c>
@@ -3902,16 +3974,16 @@
       <c r="Z6" s="64"/>
     </row>
     <row r="7" spans="1:26" ht="24" customHeight="1">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="156"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="169"/>
       <c r="I7" s="112" t="s">
         <v>92</v>
       </c>
@@ -3945,16 +4017,16 @@
       <c r="Z7" s="65"/>
     </row>
     <row r="8" spans="1:26" ht="24" customHeight="1">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="167" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="155"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="156"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="169"/>
       <c r="I8" s="112" t="s">
         <v>94</v>
       </c>
@@ -3988,16 +4060,16 @@
       <c r="Z8" s="66"/>
     </row>
     <row r="9" spans="1:26" ht="24" customHeight="1">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="167" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="155"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="156"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="169"/>
       <c r="I9" s="137" t="s">
         <v>131</v>
       </c>
@@ -4020,13 +4092,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R9" s="179" t="s">
+      <c r="R9" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="180"/>
-      <c r="T9" s="180"/>
-      <c r="U9" s="180"/>
-      <c r="V9" s="181"/>
+      <c r="S9" s="157"/>
+      <c r="T9" s="157"/>
+      <c r="U9" s="157"/>
+      <c r="V9" s="158"/>
       <c r="W9" s="144">
         <f>SUM(W2:W8)+N10</f>
         <v>13</v>
@@ -4045,21 +4117,21 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="24" customHeight="1">
-      <c r="A10" s="154"/>
-      <c r="B10" s="155"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="166" t="s">
+      <c r="A10" s="167"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="167"/>
-      <c r="M10" s="168"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="161"/>
       <c r="N10" s="17">
         <f>SUM(N2:N9)</f>
         <v>9</v>
@@ -4076,15 +4148,15 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="R10" s="166"/>
-      <c r="S10" s="167"/>
-      <c r="T10" s="167"/>
-      <c r="U10" s="167"/>
-      <c r="V10" s="167"/>
-      <c r="W10" s="167"/>
-      <c r="X10" s="167"/>
-      <c r="Y10" s="167"/>
-      <c r="Z10" s="168"/>
+      <c r="R10" s="159"/>
+      <c r="S10" s="160"/>
+      <c r="T10" s="160"/>
+      <c r="U10" s="160"/>
+      <c r="V10" s="160"/>
+      <c r="W10" s="160"/>
+      <c r="X10" s="160"/>
+      <c r="Y10" s="160"/>
+      <c r="Z10" s="161"/>
     </row>
     <row r="11" spans="1:26" ht="23.1" customHeight="1">
       <c r="D11" s="9"/>
@@ -4112,10 +4184,10 @@
       <c r="Z11" s="21"/>
     </row>
     <row r="12" spans="1:26" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="E12" s="161" t="s">
+      <c r="E12" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="162"/>
+      <c r="F12" s="163"/>
       <c r="G12" s="23" t="s">
         <v>10</v>
       </c>
@@ -4137,12 +4209,12 @@
       <c r="M12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="182" t="s">
+      <c r="N12" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="183"/>
-      <c r="P12" s="183"/>
-      <c r="Q12" s="184"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="165"/>
+      <c r="Q12" s="166"/>
       <c r="R12" s="25" t="s">
         <v>18</v>
       </c>
@@ -4164,50 +4236,50 @@
       <c r="Z12" s="26"/>
     </row>
     <row r="13" spans="1:26" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="E13" s="161" t="s">
+      <c r="E13" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="162"/>
-      <c r="G13" s="163" t="s">
+      <c r="F13" s="163"/>
+      <c r="G13" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="198">
+      <c r="H13" s="155">
         <v>1</v>
       </c>
-      <c r="I13" s="199">
+      <c r="I13" s="17">
         <v>2</v>
       </c>
-      <c r="J13" s="199">
+      <c r="J13" s="17">
         <v>3</v>
       </c>
-      <c r="K13" s="199">
+      <c r="K13" s="17">
         <v>4</v>
       </c>
-      <c r="L13" s="199">
+      <c r="L13" s="17">
         <v>5</v>
       </c>
-      <c r="M13" s="200">
+      <c r="M13" s="153">
         <v>6</v>
       </c>
-      <c r="N13" s="201">
+      <c r="N13" s="159">
         <v>7</v>
       </c>
-      <c r="O13" s="167"/>
-      <c r="P13" s="167"/>
-      <c r="Q13" s="168"/>
-      <c r="R13" s="202">
+      <c r="O13" s="160"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="154">
         <v>8</v>
       </c>
-      <c r="S13" s="199">
+      <c r="S13" s="17">
         <v>9</v>
       </c>
-      <c r="T13" s="199">
+      <c r="T13" s="17">
         <v>10</v>
       </c>
-      <c r="U13" s="199">
+      <c r="U13" s="17">
         <v>11</v>
       </c>
-      <c r="V13" s="199">
+      <c r="V13" s="17">
         <v>12</v>
       </c>
       <c r="W13" s="26"/>
@@ -4216,23 +4288,23 @@
       <c r="Z13" s="26"/>
     </row>
     <row r="14" spans="1:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E14" s="169" t="s">
+      <c r="E14" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="170"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="201"/>
       <c r="L14" s="145"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
+      <c r="M14" s="204"/>
+      <c r="N14" s="205"/>
+      <c r="O14" s="205"/>
+      <c r="P14" s="205"/>
+      <c r="Q14" s="205"/>
+      <c r="R14" s="204"/>
+      <c r="S14" s="204"/>
       <c r="T14" s="27"/>
       <c r="U14" s="27"/>
       <c r="V14" s="28"/>
@@ -4242,21 +4314,29 @@
       <c r="Z14" s="26"/>
     </row>
     <row r="15" spans="1:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E15" s="171"/>
+      <c r="E15" s="170"/>
       <c r="F15" s="172"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="202" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="202" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="202"/>
+      <c r="K15" s="202"/>
       <c r="L15" s="146"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
+      <c r="M15" s="206"/>
+      <c r="N15" s="207"/>
+      <c r="O15" s="207" t="s">
+        <v>94</v>
+      </c>
+      <c r="P15" s="208"/>
+      <c r="Q15" s="207"/>
+      <c r="R15" s="207" t="s">
+        <v>95</v>
+      </c>
+      <c r="S15" s="206"/>
       <c r="T15" s="32"/>
       <c r="U15" s="32"/>
       <c r="V15" s="33"/>
@@ -4266,21 +4346,21 @@
       <c r="Z15" s="26"/>
     </row>
     <row r="16" spans="1:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E16" s="173"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="203"/>
+      <c r="K16" s="203"/>
       <c r="L16" s="147"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="37"/>
+      <c r="M16" s="209"/>
+      <c r="N16" s="210"/>
+      <c r="O16" s="210"/>
+      <c r="P16" s="210"/>
+      <c r="Q16" s="210"/>
+      <c r="R16" s="211"/>
+      <c r="S16" s="209"/>
       <c r="T16" s="36"/>
       <c r="U16" s="36"/>
       <c r="V16" s="37"/>
@@ -4290,22 +4370,22 @@
       <c r="Z16" s="26"/>
     </row>
     <row r="17" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E17" s="169" t="s">
+      <c r="E17" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="170"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="201"/>
       <c r="L17" s="146"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="27"/>
+      <c r="M17" s="204"/>
+      <c r="N17" s="212"/>
+      <c r="O17" s="212"/>
+      <c r="P17" s="212"/>
+      <c r="Q17" s="212"/>
+      <c r="R17" s="204"/>
       <c r="S17" s="27"/>
       <c r="T17" s="58"/>
       <c r="U17" s="34"/>
@@ -4316,20 +4396,28 @@
       <c r="Z17" s="26"/>
     </row>
     <row r="18" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E18" s="171"/>
+      <c r="E18" s="170"/>
       <c r="F18" s="172"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="202" t="s">
+        <v>133</v>
+      </c>
+      <c r="I18" s="202" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="202"/>
+      <c r="K18" s="202"/>
       <c r="L18" s="146"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="32"/>
+      <c r="M18" s="206" t="s">
+        <v>134</v>
+      </c>
+      <c r="N18" s="207"/>
+      <c r="O18" s="207" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" s="207"/>
+      <c r="Q18" s="207"/>
+      <c r="R18" s="206"/>
       <c r="S18" s="32"/>
       <c r="T18" s="59"/>
       <c r="U18" s="32"/>
@@ -4340,20 +4428,20 @@
       <c r="Z18" s="26"/>
     </row>
     <row r="19" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E19" s="173"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="203"/>
       <c r="L19" s="147"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="209"/>
+      <c r="N19" s="213"/>
+      <c r="O19" s="213"/>
+      <c r="P19" s="213"/>
+      <c r="Q19" s="213"/>
+      <c r="R19" s="211"/>
       <c r="S19" s="37"/>
       <c r="T19" s="60"/>
       <c r="U19" s="36"/>
@@ -4364,23 +4452,23 @@
       <c r="Z19" s="26"/>
     </row>
     <row r="20" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E20" s="169" t="s">
+      <c r="E20" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="170"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="201"/>
       <c r="K20" s="78"/>
       <c r="L20" s="145"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
+      <c r="M20" s="204"/>
+      <c r="N20" s="212"/>
+      <c r="O20" s="212"/>
+      <c r="P20" s="212"/>
+      <c r="Q20" s="212"/>
+      <c r="R20" s="204"/>
+      <c r="S20" s="204"/>
       <c r="T20" s="28"/>
       <c r="U20" s="28"/>
       <c r="V20" s="28"/>
@@ -4390,21 +4478,33 @@
       <c r="Z20" s="56"/>
     </row>
     <row r="21" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E21" s="171"/>
+      <c r="E21" s="170"/>
       <c r="F21" s="172"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="202" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21" s="202" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" s="202"/>
       <c r="K21" s="33"/>
       <c r="L21" s="146"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
+      <c r="M21" s="206" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21" s="207" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" s="207"/>
+      <c r="P21" s="207"/>
+      <c r="Q21" s="207"/>
+      <c r="R21" s="206" t="s">
+        <v>88</v>
+      </c>
+      <c r="S21" s="206" t="s">
+        <v>87</v>
+      </c>
       <c r="T21" s="33"/>
       <c r="U21" s="33"/>
       <c r="V21" s="33"/>
@@ -4414,21 +4514,21 @@
       <c r="Z21" s="26"/>
     </row>
     <row r="22" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E22" s="173"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="203"/>
       <c r="K22" s="57"/>
       <c r="L22" s="147"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="37"/>
+      <c r="M22" s="209"/>
+      <c r="N22" s="213"/>
+      <c r="O22" s="213"/>
+      <c r="P22" s="213"/>
+      <c r="Q22" s="213"/>
+      <c r="R22" s="211"/>
+      <c r="S22" s="209"/>
       <c r="T22" s="41"/>
       <c r="U22" s="37"/>
       <c r="V22" s="37"/>
@@ -4437,14 +4537,14 @@
       <c r="Y22" s="26"/>
     </row>
     <row r="23" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E23" s="169" t="s">
+      <c r="E23" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="170"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="201"/>
       <c r="K23" s="78"/>
       <c r="L23" s="146"/>
       <c r="M23" s="27"/>
@@ -4462,12 +4562,16 @@
       <c r="Y23" s="26"/>
     </row>
     <row r="24" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E24" s="171"/>
+      <c r="E24" s="170"/>
       <c r="F24" s="172"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="202" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="202" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="202"/>
       <c r="K24" s="33"/>
       <c r="L24" s="146"/>
       <c r="M24" s="32"/>
@@ -4485,12 +4589,12 @@
       <c r="Y24" s="26"/>
     </row>
     <row r="25" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E25" s="173"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="203"/>
+      <c r="I25" s="203"/>
+      <c r="J25" s="203"/>
       <c r="K25" s="57"/>
       <c r="L25" s="147"/>
       <c r="M25" s="37"/>
@@ -4509,23 +4613,23 @@
       <c r="Z25" s="26"/>
     </row>
     <row r="26" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E26" s="169" t="s">
+      <c r="E26" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="170"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="201"/>
+      <c r="I26" s="201"/>
+      <c r="J26" s="201"/>
       <c r="K26" s="78"/>
       <c r="L26" s="150"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
+      <c r="M26" s="204"/>
+      <c r="N26" s="214"/>
+      <c r="O26" s="214"/>
+      <c r="P26" s="214"/>
+      <c r="Q26" s="212"/>
+      <c r="R26" s="204"/>
+      <c r="S26" s="204"/>
       <c r="T26" s="28"/>
       <c r="U26" s="27"/>
       <c r="V26" s="29"/>
@@ -4535,21 +4639,33 @@
       <c r="Z26" s="26"/>
     </row>
     <row r="27" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E27" s="171"/>
+      <c r="E27" s="170"/>
       <c r="F27" s="172"/>
-      <c r="G27" s="164"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="202" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="202" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" s="202"/>
       <c r="K27" s="33"/>
       <c r="L27" s="151"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
+      <c r="M27" s="206" t="s">
+        <v>90</v>
+      </c>
+      <c r="N27" s="207" t="s">
+        <v>91</v>
+      </c>
+      <c r="O27" s="207"/>
+      <c r="P27" s="207"/>
+      <c r="Q27" s="207"/>
+      <c r="R27" s="206" t="s">
+        <v>84</v>
+      </c>
+      <c r="S27" s="206" t="s">
+        <v>130</v>
+      </c>
       <c r="T27" s="33"/>
       <c r="U27" s="32"/>
       <c r="V27" s="34"/>
@@ -4559,21 +4675,21 @@
       <c r="Z27" s="26"/>
     </row>
     <row r="28" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E28" s="173"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="203"/>
+      <c r="I28" s="203"/>
+      <c r="J28" s="203"/>
       <c r="K28" s="57"/>
       <c r="L28" s="152"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="37"/>
+      <c r="M28" s="211"/>
+      <c r="N28" s="213"/>
+      <c r="O28" s="213"/>
+      <c r="P28" s="213"/>
+      <c r="Q28" s="213"/>
+      <c r="R28" s="211"/>
+      <c r="S28" s="209"/>
       <c r="T28" s="41"/>
       <c r="U28" s="36"/>
       <c r="V28" s="38"/>
@@ -4583,9 +4699,9 @@
       <c r="Z28" s="26"/>
     </row>
     <row r="29" spans="4:26" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
       <c r="I29" s="43"/>
@@ -4593,10 +4709,10 @@
       <c r="K29" s="43"/>
       <c r="L29" s="43"/>
       <c r="M29" s="43"/>
-      <c r="N29" s="159"/>
-      <c r="O29" s="159"/>
-      <c r="P29" s="159"/>
-      <c r="Q29" s="159"/>
+      <c r="N29" s="186"/>
+      <c r="O29" s="186"/>
+      <c r="P29" s="186"/>
+      <c r="Q29" s="186"/>
       <c r="R29" s="44"/>
       <c r="S29" s="43"/>
       <c r="T29" s="43"/>
@@ -4611,31 +4727,31 @@
       <c r="D30" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="157" t="s">
+      <c r="E30" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="153" t="s">
+      <c r="F30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="L30" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="M30" s="153" t="s">
+      <c r="K30" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="183" t="s">
         <v>0</v>
       </c>
       <c r="N30" s="45" t="s">
@@ -4644,16 +4760,16 @@
       <c r="O30" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P30" s="160" t="s">
+      <c r="P30" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="Q30" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="R30" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="S30" s="160" t="s">
+      <c r="Q30" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="S30" s="187" t="s">
         <v>0</v>
       </c>
       <c r="T30" s="45" t="s">
@@ -4672,31 +4788,31 @@
       <c r="D31" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="157" t="s">
+      <c r="E31" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" s="153" t="s">
+      <c r="F31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" s="153" t="s">
+      <c r="K31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="183" t="s">
         <v>0</v>
       </c>
       <c r="N31" s="45" t="s">
@@ -4705,26 +4821,26 @@
       <c r="O31" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P31" s="153" t="s">
+      <c r="P31" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="Q31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="R31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="S31" s="153" t="s">
+      <c r="Q31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="R31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="S31" s="183" t="s">
         <v>0</v>
       </c>
       <c r="T31" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="U31" s="153" t="s">
+      <c r="U31" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="V31" s="153"/>
-      <c r="W31" s="153"/>
+      <c r="V31" s="183"/>
+      <c r="W31" s="183"/>
       <c r="X31" s="46"/>
       <c r="Y31" s="46"/>
       <c r="Z31" s="26"/>
@@ -4733,31 +4849,31 @@
       <c r="D32" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="157" t="s">
+      <c r="E32" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="153" t="s">
+      <c r="F32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" s="153" t="s">
+      <c r="K32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" s="183" t="s">
         <v>0</v>
       </c>
       <c r="N32" s="45" t="s">
@@ -4766,25 +4882,25 @@
       <c r="O32" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P32" s="153" t="s">
+      <c r="P32" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="Q32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="R32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="S32" s="153" t="s">
+      <c r="Q32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="S32" s="183" t="s">
         <v>0</v>
       </c>
       <c r="T32" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="U32" s="153" t="s">
+      <c r="U32" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="V32" s="153" t="s">
+      <c r="V32" s="183" t="s">
         <v>0</v>
       </c>
       <c r="W32" s="46"/>
@@ -4814,25 +4930,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="R10:Z10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="G13:G28"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="E14:F16"/>
-    <mergeCell ref="E17:F19"/>
-    <mergeCell ref="E20:F22"/>
-    <mergeCell ref="E23:F25"/>
-    <mergeCell ref="E26:F28"/>
     <mergeCell ref="U32:V32"/>
     <mergeCell ref="U31:W31"/>
     <mergeCell ref="A8:H8"/>
@@ -4849,6 +4946,25 @@
     <mergeCell ref="J30:M30"/>
     <mergeCell ref="P30:S30"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:G28"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="E14:F16"/>
+    <mergeCell ref="E17:F19"/>
+    <mergeCell ref="E20:F22"/>
+    <mergeCell ref="E23:F25"/>
+    <mergeCell ref="E26:F28"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="R10:Z10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4865,8 +4981,8 @@
   </sheetPr>
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="D6" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -5923,16 +6039,16 @@
       <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="176" t="s">
+      <c r="J1" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="176" t="s">
+      <c r="K1" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="173" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -5950,11 +6066,11 @@
       <c r="R1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="177" t="s">
+      <c r="S1" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
       <c r="V1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6089,15 +6205,15 @@
       <c r="AB3" s="82"/>
     </row>
     <row r="4" spans="1:28" ht="24" customHeight="1">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
       <c r="H4" s="172"/>
       <c r="I4" s="112" t="s">
         <v>105</v>
@@ -6134,16 +6250,16 @@
       <c r="AB4" s="82"/>
     </row>
     <row r="5" spans="1:28" ht="24" customHeight="1">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="156"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="169"/>
       <c r="I5" s="112" t="s">
         <v>107</v>
       </c>
@@ -6179,16 +6295,16 @@
       <c r="AB5" s="82"/>
     </row>
     <row r="6" spans="1:28" ht="24" customHeight="1">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="156"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="169"/>
       <c r="I6" s="112" t="s">
         <v>109</v>
       </c>
@@ -6224,16 +6340,16 @@
       <c r="AB6" s="82"/>
     </row>
     <row r="7" spans="1:28" ht="24" customHeight="1">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="156"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="169"/>
       <c r="I7" s="112" t="s">
         <v>111</v>
       </c>
@@ -6269,16 +6385,16 @@
       <c r="AB7" s="82"/>
     </row>
     <row r="8" spans="1:28" ht="24" customHeight="1">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="167" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="155"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="156"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="169"/>
       <c r="I8" s="112" t="s">
         <v>113</v>
       </c>
@@ -6314,16 +6430,16 @@
       <c r="AB8" s="82"/>
     </row>
     <row r="9" spans="1:28" ht="24" customHeight="1">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="167" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="155"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="156"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="169"/>
       <c r="I9" s="137" t="s">
         <v>115</v>
       </c>
@@ -6346,13 +6462,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="R9" s="185" t="s">
+      <c r="R9" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="186"/>
-      <c r="T9" s="186"/>
-      <c r="U9" s="186"/>
-      <c r="V9" s="187"/>
+      <c r="S9" s="189"/>
+      <c r="T9" s="189"/>
+      <c r="U9" s="189"/>
+      <c r="V9" s="190"/>
       <c r="W9" s="144">
         <f>SUM(W2:W8)+N10</f>
         <v>11</v>
@@ -6381,13 +6497,13 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="166" t="s">
+      <c r="I10" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="167"/>
-      <c r="M10" s="168"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="161"/>
       <c r="N10" s="144">
         <f>SUM(N2:N9)</f>
         <v>11</v>
@@ -6404,15 +6520,15 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="R10" s="166"/>
-      <c r="S10" s="167"/>
-      <c r="T10" s="167"/>
-      <c r="U10" s="167"/>
-      <c r="V10" s="167"/>
-      <c r="W10" s="167"/>
-      <c r="X10" s="167"/>
-      <c r="Y10" s="167"/>
-      <c r="Z10" s="168"/>
+      <c r="R10" s="159"/>
+      <c r="S10" s="160"/>
+      <c r="T10" s="160"/>
+      <c r="U10" s="160"/>
+      <c r="V10" s="160"/>
+      <c r="W10" s="160"/>
+      <c r="X10" s="160"/>
+      <c r="Y10" s="160"/>
+      <c r="Z10" s="161"/>
     </row>
     <row r="11" spans="1:28" ht="23.1" customHeight="1">
       <c r="D11" s="9"/>
@@ -6440,10 +6556,10 @@
       <c r="Z11" s="21"/>
     </row>
     <row r="12" spans="1:28" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="E12" s="161" t="s">
+      <c r="E12" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="162"/>
+      <c r="F12" s="163"/>
       <c r="G12" s="23" t="s">
         <v>10</v>
       </c>
@@ -6465,12 +6581,12 @@
       <c r="M12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="182" t="s">
+      <c r="N12" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="183"/>
-      <c r="P12" s="183"/>
-      <c r="Q12" s="184"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="165"/>
+      <c r="Q12" s="166"/>
       <c r="R12" s="25" t="s">
         <v>18</v>
       </c>
@@ -6492,50 +6608,50 @@
       <c r="Z12" s="26"/>
     </row>
     <row r="13" spans="1:28" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="E13" s="161" t="s">
+      <c r="E13" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="162"/>
-      <c r="G13" s="163" t="s">
+      <c r="F13" s="163"/>
+      <c r="G13" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="198">
+      <c r="H13" s="155">
         <v>1</v>
       </c>
-      <c r="I13" s="199">
+      <c r="I13" s="17">
         <v>2</v>
       </c>
-      <c r="J13" s="199">
+      <c r="J13" s="17">
         <v>3</v>
       </c>
-      <c r="K13" s="199">
+      <c r="K13" s="17">
         <v>4</v>
       </c>
-      <c r="L13" s="199">
+      <c r="L13" s="17">
         <v>5</v>
       </c>
-      <c r="M13" s="200">
+      <c r="M13" s="153">
         <v>6</v>
       </c>
-      <c r="N13" s="201">
+      <c r="N13" s="159">
         <v>7</v>
       </c>
-      <c r="O13" s="167"/>
-      <c r="P13" s="167"/>
-      <c r="Q13" s="168"/>
-      <c r="R13" s="202">
+      <c r="O13" s="160"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="154">
         <v>8</v>
       </c>
-      <c r="S13" s="199">
+      <c r="S13" s="17">
         <v>9</v>
       </c>
-      <c r="T13" s="199">
+      <c r="T13" s="17">
         <v>10</v>
       </c>
-      <c r="U13" s="199">
+      <c r="U13" s="17">
         <v>11</v>
       </c>
-      <c r="V13" s="199">
+      <c r="V13" s="17">
         <v>12</v>
       </c>
       <c r="W13" s="26"/>
@@ -6544,23 +6660,23 @@
       <c r="Z13" s="26"/>
     </row>
     <row r="14" spans="1:28" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E14" s="169" t="s">
+      <c r="E14" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="170"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="201"/>
       <c r="L14" s="145"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
+      <c r="M14" s="204"/>
+      <c r="N14" s="205"/>
+      <c r="O14" s="205"/>
+      <c r="P14" s="205"/>
+      <c r="Q14" s="205"/>
+      <c r="R14" s="204"/>
+      <c r="S14" s="204"/>
       <c r="T14" s="27"/>
       <c r="U14" s="27"/>
       <c r="V14" s="28"/>
@@ -6570,21 +6686,29 @@
       <c r="Z14" s="26"/>
     </row>
     <row r="15" spans="1:28" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E15" s="171"/>
+      <c r="E15" s="170"/>
       <c r="F15" s="172"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="202" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="202" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="202"/>
+      <c r="K15" s="202"/>
       <c r="L15" s="146"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
+      <c r="M15" s="206" t="s">
+        <v>109</v>
+      </c>
+      <c r="N15" s="207" t="s">
+        <v>110</v>
+      </c>
+      <c r="O15" s="207"/>
+      <c r="P15" s="207"/>
+      <c r="Q15" s="207"/>
+      <c r="R15" s="206"/>
+      <c r="S15" s="206"/>
       <c r="T15" s="32"/>
       <c r="U15" s="32"/>
       <c r="V15" s="33"/>
@@ -6594,21 +6718,21 @@
       <c r="Z15" s="26"/>
     </row>
     <row r="16" spans="1:28" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E16" s="173"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="203"/>
+      <c r="K16" s="203"/>
       <c r="L16" s="147"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="37"/>
+      <c r="M16" s="209"/>
+      <c r="N16" s="210"/>
+      <c r="O16" s="210"/>
+      <c r="P16" s="210"/>
+      <c r="Q16" s="210"/>
+      <c r="R16" s="211"/>
+      <c r="S16" s="209"/>
       <c r="T16" s="36"/>
       <c r="U16" s="36"/>
       <c r="V16" s="37"/>
@@ -6618,23 +6742,23 @@
       <c r="Z16" s="26"/>
     </row>
     <row r="17" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E17" s="169" t="s">
+      <c r="E17" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="170"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="201"/>
       <c r="L17" s="146"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
+      <c r="M17" s="204"/>
+      <c r="N17" s="212"/>
+      <c r="O17" s="212"/>
+      <c r="P17" s="212"/>
+      <c r="Q17" s="212"/>
+      <c r="R17" s="204"/>
+      <c r="S17" s="204"/>
       <c r="T17" s="58"/>
       <c r="U17" s="34"/>
       <c r="V17" s="28"/>
@@ -6644,21 +6768,29 @@
       <c r="Z17" s="26"/>
     </row>
     <row r="18" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E18" s="171"/>
+      <c r="E18" s="170"/>
       <c r="F18" s="172"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="202" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="202" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="202"/>
+      <c r="K18" s="202"/>
       <c r="L18" s="146"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
+      <c r="M18" s="206" t="s">
+        <v>111</v>
+      </c>
+      <c r="N18" s="207" t="s">
+        <v>112</v>
+      </c>
+      <c r="O18" s="207"/>
+      <c r="P18" s="207"/>
+      <c r="Q18" s="207"/>
+      <c r="R18" s="206"/>
+      <c r="S18" s="206"/>
       <c r="T18" s="59"/>
       <c r="U18" s="32"/>
       <c r="V18" s="33"/>
@@ -6668,21 +6800,21 @@
       <c r="Z18" s="26"/>
     </row>
     <row r="19" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E19" s="173"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="203"/>
       <c r="L19" s="147"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="37"/>
+      <c r="M19" s="209"/>
+      <c r="N19" s="213"/>
+      <c r="O19" s="213"/>
+      <c r="P19" s="213"/>
+      <c r="Q19" s="213"/>
+      <c r="R19" s="211"/>
+      <c r="S19" s="209"/>
       <c r="T19" s="60"/>
       <c r="U19" s="36"/>
       <c r="V19" s="37"/>
@@ -6692,23 +6824,23 @@
       <c r="Z19" s="26"/>
     </row>
     <row r="20" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E20" s="169" t="s">
+      <c r="E20" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="170"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="201"/>
       <c r="K20" s="78"/>
       <c r="L20" s="145"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
+      <c r="M20" s="204"/>
+      <c r="N20" s="212"/>
+      <c r="O20" s="212"/>
+      <c r="P20" s="212"/>
+      <c r="Q20" s="212"/>
+      <c r="R20" s="204"/>
+      <c r="S20" s="204"/>
       <c r="T20" s="28"/>
       <c r="U20" s="28"/>
       <c r="V20" s="28"/>
@@ -6718,21 +6850,33 @@
       <c r="Z20" s="56"/>
     </row>
     <row r="21" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E21" s="171"/>
+      <c r="E21" s="170"/>
       <c r="F21" s="172"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="202" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="202" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" s="202"/>
       <c r="K21" s="33"/>
       <c r="L21" s="146"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
+      <c r="M21" s="206" t="s">
+        <v>103</v>
+      </c>
+      <c r="N21" s="207" t="s">
+        <v>104</v>
+      </c>
+      <c r="O21" s="207"/>
+      <c r="P21" s="207"/>
+      <c r="Q21" s="207"/>
+      <c r="R21" s="206" t="s">
+        <v>101</v>
+      </c>
+      <c r="S21" s="206" t="s">
+        <v>102</v>
+      </c>
       <c r="T21" s="33"/>
       <c r="U21" s="33"/>
       <c r="V21" s="33"/>
@@ -6742,21 +6886,21 @@
       <c r="Z21" s="26"/>
     </row>
     <row r="22" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E22" s="173"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="203"/>
       <c r="K22" s="57"/>
       <c r="L22" s="147"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="37"/>
+      <c r="M22" s="209"/>
+      <c r="N22" s="213"/>
+      <c r="O22" s="213"/>
+      <c r="P22" s="213"/>
+      <c r="Q22" s="213"/>
+      <c r="R22" s="211"/>
+      <c r="S22" s="209"/>
       <c r="T22" s="41"/>
       <c r="U22" s="37"/>
       <c r="V22" s="37"/>
@@ -6766,13 +6910,13 @@
       <c r="Z22" s="26"/>
     </row>
     <row r="23" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E23" s="169" t="s">
+      <c r="E23" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="170"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="201"/>
       <c r="J23" s="78"/>
       <c r="K23" s="78"/>
       <c r="L23" s="146"/>
@@ -6792,11 +6936,15 @@
       <c r="Z23" s="26"/>
     </row>
     <row r="24" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E24" s="171"/>
+      <c r="E24" s="170"/>
       <c r="F24" s="172"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="202" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="202" t="s">
+        <v>106</v>
+      </c>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
       <c r="L24" s="146"/>
@@ -6816,11 +6964,11 @@
       <c r="Z24" s="26"/>
     </row>
     <row r="25" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E25" s="173"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="203"/>
+      <c r="I25" s="203"/>
       <c r="J25" s="57"/>
       <c r="K25" s="57"/>
       <c r="L25" s="147"/>
@@ -6840,11 +6988,11 @@
       <c r="Z25" s="26"/>
     </row>
     <row r="26" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E26" s="169" t="s">
+      <c r="E26" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="170"/>
-      <c r="G26" s="164"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="177"/>
       <c r="H26" s="78"/>
       <c r="I26" s="78"/>
       <c r="J26" s="78"/>
@@ -6866,9 +7014,9 @@
       <c r="Z26" s="26"/>
     </row>
     <row r="27" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E27" s="171"/>
+      <c r="E27" s="170"/>
       <c r="F27" s="172"/>
-      <c r="G27" s="164"/>
+      <c r="G27" s="177"/>
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
       <c r="J27" s="33"/>
@@ -6890,9 +7038,9 @@
       <c r="Z27" s="26"/>
     </row>
     <row r="28" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E28" s="173"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="165"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="178"/>
       <c r="H28" s="57"/>
       <c r="I28" s="57"/>
       <c r="J28" s="57"/>
@@ -6914,9 +7062,9 @@
       <c r="Z28" s="26"/>
     </row>
     <row r="29" spans="4:26" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
       <c r="I29" s="43"/>
@@ -6924,10 +7072,10 @@
       <c r="K29" s="43"/>
       <c r="L29" s="43"/>
       <c r="M29" s="43"/>
-      <c r="N29" s="159"/>
-      <c r="O29" s="159"/>
-      <c r="P29" s="159"/>
-      <c r="Q29" s="159"/>
+      <c r="N29" s="186"/>
+      <c r="O29" s="186"/>
+      <c r="P29" s="186"/>
+      <c r="Q29" s="186"/>
       <c r="R29" s="44"/>
       <c r="S29" s="43"/>
       <c r="T29" s="43"/>
@@ -6942,31 +7090,31 @@
       <c r="D30" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="157" t="s">
+      <c r="E30" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="153" t="s">
+      <c r="F30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="L30" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="M30" s="153" t="s">
+      <c r="K30" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="183" t="s">
         <v>0</v>
       </c>
       <c r="N30" s="45" t="s">
@@ -6975,16 +7123,16 @@
       <c r="O30" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P30" s="160" t="s">
+      <c r="P30" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="Q30" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="R30" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="S30" s="160" t="s">
+      <c r="Q30" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="S30" s="187" t="s">
         <v>0</v>
       </c>
       <c r="T30" s="45" t="s">
@@ -7003,31 +7151,31 @@
       <c r="D31" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="157" t="s">
+      <c r="E31" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" s="153" t="s">
+      <c r="F31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" s="153" t="s">
+      <c r="K31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="183" t="s">
         <v>0</v>
       </c>
       <c r="N31" s="45" t="s">
@@ -7036,26 +7184,26 @@
       <c r="O31" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P31" s="153" t="s">
+      <c r="P31" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="Q31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="R31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="S31" s="153" t="s">
+      <c r="Q31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="R31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="S31" s="183" t="s">
         <v>0</v>
       </c>
       <c r="T31" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="U31" s="153" t="s">
+      <c r="U31" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="V31" s="153"/>
-      <c r="W31" s="153"/>
+      <c r="V31" s="183"/>
+      <c r="W31" s="183"/>
       <c r="X31" s="46"/>
       <c r="Y31" s="46"/>
       <c r="Z31" s="26"/>
@@ -7064,31 +7212,31 @@
       <c r="D32" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="157" t="s">
+      <c r="E32" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="153" t="s">
+      <c r="F32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" s="153" t="s">
+      <c r="K32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" s="183" t="s">
         <v>0</v>
       </c>
       <c r="N32" s="45" t="s">
@@ -7097,25 +7245,25 @@
       <c r="O32" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P32" s="153" t="s">
+      <c r="P32" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="Q32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="R32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="S32" s="153" t="s">
+      <c r="Q32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="S32" s="183" t="s">
         <v>0</v>
       </c>
       <c r="T32" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="U32" s="153" t="s">
+      <c r="U32" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="V32" s="153" t="s">
+      <c r="V32" s="183" t="s">
         <v>0</v>
       </c>
       <c r="W32" s="46"/>
@@ -7145,11 +7293,27 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="R10:Z10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:G28"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="E14:F16"/>
+    <mergeCell ref="E17:F19"/>
+    <mergeCell ref="E20:F22"/>
+    <mergeCell ref="E23:F25"/>
+    <mergeCell ref="E26:F28"/>
     <mergeCell ref="U31:W31"/>
     <mergeCell ref="E32:I32"/>
     <mergeCell ref="J32:M32"/>
@@ -7158,27 +7322,11 @@
     <mergeCell ref="E31:I31"/>
     <mergeCell ref="J31:M31"/>
     <mergeCell ref="P31:S31"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:G28"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="E14:F16"/>
-    <mergeCell ref="E17:F19"/>
-    <mergeCell ref="E20:F22"/>
-    <mergeCell ref="E23:F25"/>
-    <mergeCell ref="E26:F28"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="R10:Z10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="P30:S30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0" top="0.59055118110236227" bottom="0" header="0.19685039370078741" footer="0"/>
@@ -7194,8 +7342,8 @@
   </sheetPr>
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:V28"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -8250,16 +8398,16 @@
       <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="176" t="s">
+      <c r="J1" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="176" t="s">
+      <c r="K1" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="173" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -8277,11 +8425,11 @@
       <c r="R1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="177" t="s">
+      <c r="S1" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
       <c r="V1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8402,15 +8550,15 @@
       <c r="AB3" s="82"/>
     </row>
     <row r="4" spans="1:28" ht="24" customHeight="1">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
       <c r="H4" s="172"/>
       <c r="I4" s="62"/>
       <c r="J4" s="63"/>
@@ -8434,16 +8582,16 @@
       <c r="AB4" s="82"/>
     </row>
     <row r="5" spans="1:28" ht="24" customHeight="1">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="156"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="169"/>
       <c r="I5" s="62"/>
       <c r="J5" s="83"/>
       <c r="K5" s="48"/>
@@ -8466,16 +8614,16 @@
       <c r="AB5" s="82"/>
     </row>
     <row r="6" spans="1:28" ht="24" customHeight="1">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="156"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="169"/>
       <c r="I6" s="62"/>
       <c r="J6" s="47"/>
       <c r="K6" s="48"/>
@@ -8498,16 +8646,16 @@
       <c r="AB6" s="82"/>
     </row>
     <row r="7" spans="1:28" ht="24" customHeight="1">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="156"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="169"/>
       <c r="I7" s="62"/>
       <c r="J7" s="47"/>
       <c r="K7" s="48"/>
@@ -8530,16 +8678,16 @@
       <c r="AB7" s="82"/>
     </row>
     <row r="8" spans="1:28" ht="24" customHeight="1">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="167" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="155"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="156"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="169"/>
       <c r="I8" s="62"/>
       <c r="J8" s="47"/>
       <c r="K8" s="48"/>
@@ -8562,16 +8710,16 @@
       <c r="AB8" s="82"/>
     </row>
     <row r="9" spans="1:28" ht="24" customHeight="1">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="155"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="156"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="169"/>
       <c r="I9" s="67"/>
       <c r="J9" s="75"/>
       <c r="K9" s="76"/>
@@ -8581,13 +8729,13 @@
       <c r="O9" s="13"/>
       <c r="P9" s="38"/>
       <c r="Q9" s="12"/>
-      <c r="R9" s="185" t="s">
+      <c r="R9" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="186"/>
-      <c r="T9" s="186"/>
-      <c r="U9" s="186"/>
-      <c r="V9" s="187"/>
+      <c r="S9" s="189"/>
+      <c r="T9" s="189"/>
+      <c r="U9" s="189"/>
+      <c r="V9" s="190"/>
       <c r="W9" s="144">
         <f>SUM(W2:W8)+N10</f>
         <v>0</v>
@@ -8616,13 +8764,13 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="166" t="s">
+      <c r="I10" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="167"/>
-      <c r="M10" s="168"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="161"/>
       <c r="N10" s="144">
         <f>SUM(N2:N9)</f>
         <v>0</v>
@@ -8639,15 +8787,15 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="R10" s="166"/>
-      <c r="S10" s="167"/>
-      <c r="T10" s="167"/>
-      <c r="U10" s="167"/>
-      <c r="V10" s="167"/>
-      <c r="W10" s="167"/>
-      <c r="X10" s="167"/>
-      <c r="Y10" s="167"/>
-      <c r="Z10" s="168"/>
+      <c r="R10" s="159"/>
+      <c r="S10" s="160"/>
+      <c r="T10" s="160"/>
+      <c r="U10" s="160"/>
+      <c r="V10" s="160"/>
+      <c r="W10" s="160"/>
+      <c r="X10" s="160"/>
+      <c r="Y10" s="160"/>
+      <c r="Z10" s="161"/>
     </row>
     <row r="11" spans="1:28" ht="23.1" customHeight="1">
       <c r="D11" s="9"/>
@@ -8675,10 +8823,10 @@
       <c r="Z11" s="21"/>
     </row>
     <row r="12" spans="1:28" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="E12" s="161" t="s">
+      <c r="E12" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="162"/>
+      <c r="F12" s="163"/>
       <c r="G12" s="23" t="s">
         <v>10</v>
       </c>
@@ -8700,12 +8848,12 @@
       <c r="M12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="182" t="s">
+      <c r="N12" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="183"/>
-      <c r="P12" s="183"/>
-      <c r="Q12" s="184"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="165"/>
+      <c r="Q12" s="166"/>
       <c r="R12" s="25" t="s">
         <v>18</v>
       </c>
@@ -8727,50 +8875,50 @@
       <c r="Z12" s="26"/>
     </row>
     <row r="13" spans="1:28" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="E13" s="161" t="s">
+      <c r="E13" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="162"/>
-      <c r="G13" s="163" t="s">
+      <c r="F13" s="163"/>
+      <c r="G13" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="198">
+      <c r="H13" s="155">
         <v>1</v>
       </c>
-      <c r="I13" s="199">
+      <c r="I13" s="17">
         <v>2</v>
       </c>
-      <c r="J13" s="199">
+      <c r="J13" s="17">
         <v>3</v>
       </c>
-      <c r="K13" s="199">
+      <c r="K13" s="17">
         <v>4</v>
       </c>
-      <c r="L13" s="199">
+      <c r="L13" s="17">
         <v>5</v>
       </c>
-      <c r="M13" s="200">
+      <c r="M13" s="153">
         <v>6</v>
       </c>
-      <c r="N13" s="201">
+      <c r="N13" s="159">
         <v>7</v>
       </c>
-      <c r="O13" s="167"/>
-      <c r="P13" s="167"/>
-      <c r="Q13" s="168"/>
-      <c r="R13" s="202">
+      <c r="O13" s="160"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="154">
         <v>8</v>
       </c>
-      <c r="S13" s="199">
+      <c r="S13" s="17">
         <v>9</v>
       </c>
-      <c r="T13" s="199">
+      <c r="T13" s="17">
         <v>10</v>
       </c>
-      <c r="U13" s="199">
+      <c r="U13" s="17">
         <v>11</v>
       </c>
-      <c r="V13" s="199">
+      <c r="V13" s="17">
         <v>12</v>
       </c>
       <c r="W13" s="26"/>
@@ -8779,14 +8927,14 @@
       <c r="Z13" s="26"/>
     </row>
     <row r="14" spans="1:28" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E14" s="169" t="s">
+      <c r="E14" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="170"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="201"/>
       <c r="K14" s="78"/>
       <c r="L14" s="145"/>
       <c r="M14" s="27"/>
@@ -8805,12 +8953,16 @@
       <c r="Z14" s="26"/>
     </row>
     <row r="15" spans="1:28" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E15" s="171"/>
+      <c r="E15" s="170"/>
       <c r="F15" s="172"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="202" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="202" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="202"/>
       <c r="K15" s="33"/>
       <c r="L15" s="146"/>
       <c r="M15" s="32"/>
@@ -8829,12 +8981,12 @@
       <c r="Z15" s="26"/>
     </row>
     <row r="16" spans="1:28" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E16" s="173"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="203"/>
       <c r="K16" s="57"/>
       <c r="L16" s="147"/>
       <c r="M16" s="37"/>
@@ -8853,11 +9005,11 @@
       <c r="Z16" s="26"/>
     </row>
     <row r="17" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E17" s="169" t="s">
+      <c r="E17" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="170"/>
-      <c r="G17" s="164"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="177"/>
       <c r="H17" s="78"/>
       <c r="I17" s="78"/>
       <c r="J17" s="78"/>
@@ -8879,9 +9031,9 @@
       <c r="Z17" s="26"/>
     </row>
     <row r="18" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E18" s="171"/>
+      <c r="E18" s="170"/>
       <c r="F18" s="172"/>
-      <c r="G18" s="164"/>
+      <c r="G18" s="177"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
@@ -8903,9 +9055,9 @@
       <c r="Z18" s="26"/>
     </row>
     <row r="19" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E19" s="173"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="164"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="177"/>
       <c r="H19" s="57"/>
       <c r="I19" s="57"/>
       <c r="J19" s="57"/>
@@ -8927,11 +9079,11 @@
       <c r="Z19" s="26"/>
     </row>
     <row r="20" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E20" s="169" t="s">
+      <c r="E20" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="170"/>
-      <c r="G20" s="164"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="177"/>
       <c r="H20" s="78"/>
       <c r="I20" s="78"/>
       <c r="J20" s="78"/>
@@ -8953,9 +9105,9 @@
       <c r="Z20" s="56"/>
     </row>
     <row r="21" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E21" s="171"/>
+      <c r="E21" s="170"/>
       <c r="F21" s="172"/>
-      <c r="G21" s="164"/>
+      <c r="G21" s="177"/>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
@@ -8977,9 +9129,9 @@
       <c r="Z21" s="26"/>
     </row>
     <row r="22" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E22" s="173"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="164"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="177"/>
       <c r="H22" s="57"/>
       <c r="I22" s="57"/>
       <c r="J22" s="57"/>
@@ -9001,11 +9153,11 @@
       <c r="Z22" s="26"/>
     </row>
     <row r="23" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E23" s="169" t="s">
+      <c r="E23" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="170"/>
-      <c r="G23" s="164"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="177"/>
       <c r="H23" s="78"/>
       <c r="I23" s="78"/>
       <c r="J23" s="78"/>
@@ -9027,9 +9179,9 @@
       <c r="Z23" s="26"/>
     </row>
     <row r="24" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E24" s="171"/>
+      <c r="E24" s="170"/>
       <c r="F24" s="172"/>
-      <c r="G24" s="164"/>
+      <c r="G24" s="177"/>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
@@ -9051,9 +9203,9 @@
       <c r="Z24" s="26"/>
     </row>
     <row r="25" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E25" s="173"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="164"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="177"/>
       <c r="H25" s="57"/>
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
@@ -9075,11 +9227,11 @@
       <c r="Z25" s="26"/>
     </row>
     <row r="26" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E26" s="169" t="s">
+      <c r="E26" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="170"/>
-      <c r="G26" s="164"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="177"/>
       <c r="H26" s="78"/>
       <c r="I26" s="78"/>
       <c r="J26" s="78"/>
@@ -9101,9 +9253,9 @@
       <c r="Z26" s="26"/>
     </row>
     <row r="27" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E27" s="171"/>
+      <c r="E27" s="170"/>
       <c r="F27" s="172"/>
-      <c r="G27" s="164"/>
+      <c r="G27" s="177"/>
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
       <c r="J27" s="33"/>
@@ -9125,9 +9277,9 @@
       <c r="Z27" s="26"/>
     </row>
     <row r="28" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E28" s="173"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="165"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="178"/>
       <c r="H28" s="57"/>
       <c r="I28" s="57"/>
       <c r="J28" s="57"/>
@@ -9149,9 +9301,9 @@
       <c r="Z28" s="26"/>
     </row>
     <row r="29" spans="4:26" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
       <c r="I29" s="43"/>
@@ -9159,10 +9311,10 @@
       <c r="K29" s="43"/>
       <c r="L29" s="43"/>
       <c r="M29" s="43"/>
-      <c r="N29" s="159"/>
-      <c r="O29" s="159"/>
-      <c r="P29" s="159"/>
-      <c r="Q29" s="159"/>
+      <c r="N29" s="186"/>
+      <c r="O29" s="186"/>
+      <c r="P29" s="186"/>
+      <c r="Q29" s="186"/>
       <c r="R29" s="44"/>
       <c r="S29" s="43"/>
       <c r="T29" s="43"/>
@@ -9177,31 +9329,31 @@
       <c r="D30" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="157" t="s">
+      <c r="E30" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="153" t="s">
+      <c r="F30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="L30" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="M30" s="153" t="s">
+      <c r="K30" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="183" t="s">
         <v>0</v>
       </c>
       <c r="N30" s="45" t="s">
@@ -9210,16 +9362,16 @@
       <c r="O30" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P30" s="160" t="s">
+      <c r="P30" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="Q30" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="R30" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="S30" s="160" t="s">
+      <c r="Q30" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="S30" s="187" t="s">
         <v>0</v>
       </c>
       <c r="T30" s="45" t="s">
@@ -9238,31 +9390,31 @@
       <c r="D31" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="157" t="s">
+      <c r="E31" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" s="153" t="s">
+      <c r="F31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" s="153" t="s">
+      <c r="K31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="183" t="s">
         <v>0</v>
       </c>
       <c r="N31" s="45" t="s">
@@ -9271,26 +9423,26 @@
       <c r="O31" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P31" s="153" t="s">
+      <c r="P31" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="Q31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="R31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="S31" s="153" t="s">
+      <c r="Q31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="R31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="S31" s="183" t="s">
         <v>0</v>
       </c>
       <c r="T31" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="U31" s="153" t="s">
+      <c r="U31" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="V31" s="153"/>
-      <c r="W31" s="153"/>
+      <c r="V31" s="183"/>
+      <c r="W31" s="183"/>
       <c r="X31" s="46"/>
       <c r="Y31" s="46"/>
       <c r="Z31" s="26"/>
@@ -9299,31 +9451,31 @@
       <c r="D32" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="157" t="s">
+      <c r="E32" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="153" t="s">
+      <c r="F32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" s="153" t="s">
+      <c r="K32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" s="183" t="s">
         <v>0</v>
       </c>
       <c r="N32" s="45" t="s">
@@ -9332,25 +9484,25 @@
       <c r="O32" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P32" s="153" t="s">
+      <c r="P32" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="Q32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="R32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="S32" s="153" t="s">
+      <c r="Q32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="S32" s="183" t="s">
         <v>0</v>
       </c>
       <c r="T32" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="U32" s="153" t="s">
+      <c r="U32" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="V32" s="153" t="s">
+      <c r="V32" s="183" t="s">
         <v>0</v>
       </c>
       <c r="W32" s="46"/>
@@ -9380,6 +9532,32 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="R10:Z10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="G13:G28"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="E14:F16"/>
+    <mergeCell ref="E17:F19"/>
+    <mergeCell ref="E20:F22"/>
+    <mergeCell ref="E23:F25"/>
+    <mergeCell ref="E26:F28"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="P30:S30"/>
     <mergeCell ref="U31:W31"/>
     <mergeCell ref="E32:I32"/>
     <mergeCell ref="J32:M32"/>
@@ -9388,32 +9566,6 @@
     <mergeCell ref="E31:I31"/>
     <mergeCell ref="J31:M31"/>
     <mergeCell ref="P31:S31"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="G13:G28"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="E14:F16"/>
-    <mergeCell ref="E17:F19"/>
-    <mergeCell ref="E20:F22"/>
-    <mergeCell ref="E23:F25"/>
-    <mergeCell ref="E26:F28"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="R10:Z10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="A9:H9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0" top="0.59055118110236227" bottom="0" header="0.19685039370078741" footer="0"/>
@@ -9429,8 +9581,8 @@
   </sheetPr>
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:V28"/>
+    <sheetView topLeftCell="G17" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -10549,16 +10701,16 @@
       <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="176" t="s">
+      <c r="J1" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="176" t="s">
+      <c r="K1" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="173" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -10576,11 +10728,11 @@
       <c r="R1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="177" t="s">
+      <c r="S1" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
       <c r="V1" s="6" t="s">
         <v>0</v>
       </c>
@@ -10728,15 +10880,15 @@
       <c r="AB3" s="90"/>
     </row>
     <row r="4" spans="1:28" ht="24" customHeight="1">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
       <c r="H4" s="172"/>
       <c r="I4" s="112" t="s">
         <v>128</v>
@@ -10786,16 +10938,16 @@
       <c r="AB4" s="90"/>
     </row>
     <row r="5" spans="1:28" ht="24" customHeight="1">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="156"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="169"/>
       <c r="I5" s="112" t="s">
         <v>48</v>
       </c>
@@ -10844,16 +10996,16 @@
       <c r="AB5" s="90"/>
     </row>
     <row r="6" spans="1:28" ht="24" customHeight="1">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="156"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="169"/>
       <c r="I6" s="112" t="s">
         <v>61</v>
       </c>
@@ -10902,16 +11054,16 @@
       <c r="AB6" s="90"/>
     </row>
     <row r="7" spans="1:28" ht="24" customHeight="1">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="156"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="169"/>
       <c r="I7" s="112" t="s">
         <v>49</v>
       </c>
@@ -10947,16 +11099,16 @@
       <c r="AB7" s="90"/>
     </row>
     <row r="8" spans="1:28" ht="24" customHeight="1">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="167" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="155"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="156"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="169"/>
       <c r="I8" s="112" t="s">
         <v>64</v>
       </c>
@@ -10992,16 +11144,16 @@
       <c r="AB8" s="90"/>
     </row>
     <row r="9" spans="1:28" ht="24" customHeight="1">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="155"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="156"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="169"/>
       <c r="I9" s="142" t="s">
         <v>136</v>
       </c>
@@ -11024,13 +11176,13 @@
         <f>N9+O9</f>
         <v>4</v>
       </c>
-      <c r="R9" s="188" t="s">
+      <c r="R9" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="189"/>
-      <c r="T9" s="189"/>
-      <c r="U9" s="189"/>
-      <c r="V9" s="190"/>
+      <c r="S9" s="194"/>
+      <c r="T9" s="194"/>
+      <c r="U9" s="194"/>
+      <c r="V9" s="195"/>
       <c r="W9" s="144">
         <f>SUM(W2:W8)+N10</f>
         <v>22</v>
@@ -11059,13 +11211,13 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="166" t="s">
+      <c r="I10" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="167"/>
-      <c r="K10" s="191"/>
-      <c r="L10" s="191"/>
-      <c r="M10" s="192"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="196"/>
+      <c r="L10" s="196"/>
+      <c r="M10" s="197"/>
       <c r="N10" s="17">
         <f>SUM(N2:N9)</f>
         <v>14</v>
@@ -11082,15 +11234,15 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="R10" s="166"/>
-      <c r="S10" s="167"/>
-      <c r="T10" s="167"/>
-      <c r="U10" s="167"/>
-      <c r="V10" s="167"/>
-      <c r="W10" s="167"/>
-      <c r="X10" s="167"/>
-      <c r="Y10" s="167"/>
-      <c r="Z10" s="168"/>
+      <c r="R10" s="159"/>
+      <c r="S10" s="160"/>
+      <c r="T10" s="160"/>
+      <c r="U10" s="160"/>
+      <c r="V10" s="160"/>
+      <c r="W10" s="160"/>
+      <c r="X10" s="160"/>
+      <c r="Y10" s="160"/>
+      <c r="Z10" s="161"/>
     </row>
     <row r="11" spans="1:28" ht="23.1" customHeight="1">
       <c r="D11" s="9"/>
@@ -11118,10 +11270,10 @@
       <c r="Z11" s="21"/>
     </row>
     <row r="12" spans="1:28" s="95" customFormat="1" ht="24" customHeight="1">
-      <c r="E12" s="161" t="s">
+      <c r="E12" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="162"/>
+      <c r="F12" s="163"/>
       <c r="G12" s="23" t="s">
         <v>10</v>
       </c>
@@ -11143,12 +11295,12 @@
       <c r="M12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="182" t="s">
+      <c r="N12" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="183"/>
-      <c r="P12" s="183"/>
-      <c r="Q12" s="184"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="165"/>
+      <c r="Q12" s="166"/>
       <c r="R12" s="25" t="s">
         <v>18</v>
       </c>
@@ -11170,50 +11322,50 @@
       <c r="Z12" s="96"/>
     </row>
     <row r="13" spans="1:28" s="95" customFormat="1" ht="24" customHeight="1">
-      <c r="E13" s="161" t="s">
+      <c r="E13" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="162"/>
-      <c r="G13" s="163" t="s">
+      <c r="F13" s="163"/>
+      <c r="G13" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="198">
+      <c r="H13" s="155">
         <v>1</v>
       </c>
-      <c r="I13" s="199">
+      <c r="I13" s="17">
         <v>2</v>
       </c>
-      <c r="J13" s="199">
+      <c r="J13" s="17">
         <v>3</v>
       </c>
-      <c r="K13" s="199">
+      <c r="K13" s="17">
         <v>4</v>
       </c>
-      <c r="L13" s="199">
+      <c r="L13" s="17">
         <v>5</v>
       </c>
-      <c r="M13" s="200">
+      <c r="M13" s="153">
         <v>6</v>
       </c>
-      <c r="N13" s="201">
+      <c r="N13" s="159">
         <v>7</v>
       </c>
-      <c r="O13" s="167"/>
-      <c r="P13" s="167"/>
-      <c r="Q13" s="168"/>
-      <c r="R13" s="202">
+      <c r="O13" s="160"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="154">
         <v>8</v>
       </c>
-      <c r="S13" s="199">
+      <c r="S13" s="17">
         <v>9</v>
       </c>
-      <c r="T13" s="199">
+      <c r="T13" s="17">
         <v>10</v>
       </c>
-      <c r="U13" s="199">
+      <c r="U13" s="17">
         <v>11</v>
       </c>
-      <c r="V13" s="199">
+      <c r="V13" s="17">
         <v>12</v>
       </c>
       <c r="W13" s="96"/>
@@ -11222,97 +11374,109 @@
       <c r="Z13" s="96"/>
     </row>
     <row r="14" spans="1:28" s="95" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E14" s="169" t="s">
+      <c r="E14" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="170"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="201"/>
       <c r="L14" s="145"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="28"/>
+      <c r="M14" s="204"/>
+      <c r="N14" s="205"/>
+      <c r="O14" s="205"/>
+      <c r="P14" s="205"/>
+      <c r="Q14" s="205"/>
+      <c r="R14" s="204"/>
+      <c r="S14" s="204"/>
+      <c r="T14" s="204"/>
+      <c r="U14" s="204"/>
+      <c r="V14" s="219"/>
       <c r="W14" s="96"/>
       <c r="X14" s="96"/>
       <c r="Y14" s="96"/>
       <c r="Z14" s="96"/>
     </row>
     <row r="15" spans="1:28" s="95" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E15" s="171"/>
+      <c r="E15" s="170"/>
       <c r="F15" s="172"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="202" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="202" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="202"/>
+      <c r="K15" s="202"/>
       <c r="L15" s="146"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="33"/>
+      <c r="M15" s="206" t="s">
+        <v>138</v>
+      </c>
+      <c r="N15" s="207" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" s="207"/>
+      <c r="P15" s="207"/>
+      <c r="Q15" s="207"/>
+      <c r="R15" s="206"/>
+      <c r="S15" s="206"/>
+      <c r="T15" s="206" t="s">
+        <v>49</v>
+      </c>
+      <c r="U15" s="206" t="s">
+        <v>63</v>
+      </c>
+      <c r="V15" s="202"/>
       <c r="W15" s="96"/>
       <c r="X15" s="96"/>
       <c r="Y15" s="96"/>
       <c r="Z15" s="96"/>
     </row>
     <row r="16" spans="1:28" s="95" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E16" s="173"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="203"/>
+      <c r="K16" s="203"/>
       <c r="L16" s="147"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="37"/>
+      <c r="M16" s="209"/>
+      <c r="N16" s="210"/>
+      <c r="O16" s="210"/>
+      <c r="P16" s="210"/>
+      <c r="Q16" s="210"/>
+      <c r="R16" s="211"/>
+      <c r="S16" s="209"/>
+      <c r="T16" s="211"/>
+      <c r="U16" s="211"/>
+      <c r="V16" s="209"/>
       <c r="W16" s="96"/>
       <c r="X16" s="96"/>
       <c r="Y16" s="96"/>
       <c r="Z16" s="96"/>
     </row>
     <row r="17" spans="4:26" s="95" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E17" s="169" t="s">
+      <c r="E17" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="170"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="201"/>
       <c r="L17" s="146"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
+      <c r="M17" s="204"/>
+      <c r="N17" s="212"/>
+      <c r="O17" s="212"/>
+      <c r="P17" s="212"/>
+      <c r="Q17" s="212"/>
+      <c r="R17" s="204"/>
+      <c r="S17" s="204"/>
       <c r="T17" s="58"/>
       <c r="U17" s="34"/>
       <c r="V17" s="28"/>
@@ -11322,21 +11486,29 @@
       <c r="Z17" s="96"/>
     </row>
     <row r="18" spans="4:26" s="95" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E18" s="171"/>
+      <c r="E18" s="170"/>
       <c r="F18" s="172"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="202" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="202" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="202"/>
+      <c r="K18" s="202"/>
       <c r="L18" s="146"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
+      <c r="M18" s="206" t="s">
+        <v>140</v>
+      </c>
+      <c r="N18" s="207" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18" s="207"/>
+      <c r="P18" s="207"/>
+      <c r="Q18" s="207"/>
+      <c r="R18" s="206"/>
+      <c r="S18" s="206"/>
       <c r="T18" s="59"/>
       <c r="U18" s="32"/>
       <c r="V18" s="33"/>
@@ -11346,21 +11518,21 @@
       <c r="Z18" s="96"/>
     </row>
     <row r="19" spans="4:26" s="95" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E19" s="173"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="203"/>
       <c r="L19" s="147"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="37"/>
+      <c r="M19" s="209"/>
+      <c r="N19" s="213"/>
+      <c r="O19" s="213"/>
+      <c r="P19" s="213"/>
+      <c r="Q19" s="213"/>
+      <c r="R19" s="211"/>
+      <c r="S19" s="209"/>
       <c r="T19" s="60"/>
       <c r="U19" s="36"/>
       <c r="V19" s="37"/>
@@ -11370,23 +11542,23 @@
       <c r="Z19" s="96"/>
     </row>
     <row r="20" spans="4:26" s="95" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E20" s="169" t="s">
+      <c r="E20" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="170"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="201"/>
+      <c r="K20" s="201"/>
       <c r="L20" s="145"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
+      <c r="M20" s="204"/>
+      <c r="N20" s="212"/>
+      <c r="O20" s="212"/>
+      <c r="P20" s="212"/>
+      <c r="Q20" s="212"/>
+      <c r="R20" s="204"/>
+      <c r="S20" s="204"/>
       <c r="T20" s="28"/>
       <c r="U20" s="28"/>
       <c r="V20" s="28"/>
@@ -11396,21 +11568,29 @@
       <c r="Z20" s="98"/>
     </row>
     <row r="21" spans="4:26" s="95" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E21" s="171"/>
+      <c r="E21" s="170"/>
       <c r="F21" s="172"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="202" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="202" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="202"/>
+      <c r="K21" s="202"/>
       <c r="L21" s="146"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
+      <c r="M21" s="206" t="s">
+        <v>64</v>
+      </c>
+      <c r="N21" s="207" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="207"/>
+      <c r="P21" s="207"/>
+      <c r="Q21" s="207"/>
+      <c r="R21" s="206"/>
+      <c r="S21" s="206"/>
       <c r="T21" s="33"/>
       <c r="U21" s="33"/>
       <c r="V21" s="33"/>
@@ -11420,21 +11600,21 @@
       <c r="Z21" s="96"/>
     </row>
     <row r="22" spans="4:26" s="95" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E22" s="173"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="203"/>
+      <c r="K22" s="203"/>
       <c r="L22" s="147"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="37"/>
+      <c r="M22" s="209"/>
+      <c r="N22" s="213"/>
+      <c r="O22" s="213"/>
+      <c r="P22" s="213"/>
+      <c r="Q22" s="213"/>
+      <c r="R22" s="211"/>
+      <c r="S22" s="209"/>
       <c r="T22" s="41"/>
       <c r="U22" s="37"/>
       <c r="V22" s="37"/>
@@ -11444,24 +11624,28 @@
       <c r="Z22" s="96"/>
     </row>
     <row r="23" spans="4:26" s="95" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E23" s="169" t="s">
+      <c r="E23" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="170"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="201" t="s">
+        <v>45</v>
+      </c>
       <c r="L23" s="146"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="28"/>
+      <c r="M23" s="204"/>
+      <c r="N23" s="215"/>
+      <c r="O23" s="205"/>
+      <c r="P23" s="205"/>
+      <c r="Q23" s="205"/>
+      <c r="R23" s="204"/>
+      <c r="S23" s="201" t="s">
+        <v>45</v>
+      </c>
+      <c r="T23" s="219"/>
       <c r="U23" s="27"/>
       <c r="V23" s="29"/>
       <c r="W23" s="96"/>
@@ -11470,22 +11654,30 @@
       <c r="Z23" s="98"/>
     </row>
     <row r="24" spans="4:26" s="95" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E24" s="171"/>
+      <c r="E24" s="170"/>
       <c r="F24" s="172"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="202" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="202" t="s">
+        <v>135</v>
+      </c>
+      <c r="J24" s="202"/>
+      <c r="K24" s="202" t="s">
+        <v>59</v>
+      </c>
       <c r="L24" s="146"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="33"/>
+      <c r="M24" s="206"/>
+      <c r="N24" s="216"/>
+      <c r="O24" s="217"/>
+      <c r="P24" s="217"/>
+      <c r="Q24" s="217"/>
+      <c r="R24" s="206"/>
+      <c r="S24" s="202" t="s">
+        <v>59</v>
+      </c>
+      <c r="T24" s="202"/>
       <c r="U24" s="32"/>
       <c r="V24" s="34"/>
       <c r="W24" s="96"/>
@@ -11494,22 +11686,22 @@
       <c r="Z24" s="96"/>
     </row>
     <row r="25" spans="4:26" s="95" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E25" s="173"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="203"/>
+      <c r="I25" s="203"/>
+      <c r="J25" s="203"/>
+      <c r="K25" s="203"/>
       <c r="L25" s="147"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="41"/>
+      <c r="M25" s="209"/>
+      <c r="N25" s="218"/>
+      <c r="O25" s="213"/>
+      <c r="P25" s="213"/>
+      <c r="Q25" s="213"/>
+      <c r="R25" s="211"/>
+      <c r="S25" s="209"/>
+      <c r="T25" s="220"/>
       <c r="U25" s="36"/>
       <c r="V25" s="38"/>
       <c r="W25" s="96"/>
@@ -11518,83 +11710,99 @@
       <c r="Z25" s="96"/>
     </row>
     <row r="26" spans="4:26" s="95" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E26" s="169" t="s">
+      <c r="E26" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="170"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="201"/>
+      <c r="I26" s="201"/>
+      <c r="J26" s="201"/>
+      <c r="K26" s="224" t="s">
+        <v>61</v>
+      </c>
       <c r="L26" s="150"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="29"/>
+      <c r="M26" s="204"/>
+      <c r="N26" s="214"/>
+      <c r="O26" s="214"/>
+      <c r="P26" s="214"/>
+      <c r="Q26" s="212"/>
+      <c r="R26" s="204"/>
+      <c r="S26" s="204"/>
+      <c r="T26" s="219" t="s">
+        <v>61</v>
+      </c>
+      <c r="U26" s="204"/>
+      <c r="V26" s="221"/>
       <c r="W26" s="96"/>
       <c r="X26" s="96"/>
       <c r="Y26" s="96"/>
       <c r="Z26" s="96"/>
     </row>
     <row r="27" spans="4:26" s="95" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E27" s="171"/>
+      <c r="E27" s="170"/>
       <c r="F27" s="172"/>
-      <c r="G27" s="164"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="202" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="202" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" s="202"/>
+      <c r="K27" s="202" t="s">
+        <v>62</v>
+      </c>
       <c r="L27" s="151"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="34"/>
+      <c r="M27" s="206" t="s">
+        <v>128</v>
+      </c>
+      <c r="N27" s="207" t="s">
+        <v>129</v>
+      </c>
+      <c r="O27" s="207"/>
+      <c r="P27" s="207"/>
+      <c r="Q27" s="207"/>
+      <c r="R27" s="206"/>
+      <c r="S27" s="206"/>
+      <c r="T27" s="202" t="s">
+        <v>62</v>
+      </c>
+      <c r="U27" s="206"/>
+      <c r="V27" s="222"/>
       <c r="W27" s="96"/>
       <c r="X27" s="96"/>
       <c r="Y27" s="96"/>
       <c r="Z27" s="96"/>
     </row>
     <row r="28" spans="4:26" s="95" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E28" s="173"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="203"/>
+      <c r="I28" s="203"/>
+      <c r="J28" s="203"/>
+      <c r="K28" s="203"/>
       <c r="L28" s="152"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="38"/>
+      <c r="M28" s="211"/>
+      <c r="N28" s="213"/>
+      <c r="O28" s="213"/>
+      <c r="P28" s="213"/>
+      <c r="Q28" s="213"/>
+      <c r="R28" s="211"/>
+      <c r="S28" s="209"/>
+      <c r="T28" s="220"/>
+      <c r="U28" s="211"/>
+      <c r="V28" s="223"/>
       <c r="W28" s="96"/>
       <c r="X28" s="96"/>
       <c r="Y28" s="96"/>
       <c r="Z28" s="96"/>
     </row>
     <row r="29" spans="4:26" s="95" customFormat="1" ht="15" customHeight="1">
-      <c r="D29" s="193"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="191"/>
+      <c r="F29" s="191"/>
       <c r="G29" s="97"/>
       <c r="H29" s="97"/>
       <c r="I29" s="99"/>
@@ -11602,10 +11810,10 @@
       <c r="K29" s="99"/>
       <c r="L29" s="99"/>
       <c r="M29" s="99"/>
-      <c r="N29" s="194"/>
-      <c r="O29" s="194"/>
-      <c r="P29" s="194"/>
-      <c r="Q29" s="194"/>
+      <c r="N29" s="192"/>
+      <c r="O29" s="192"/>
+      <c r="P29" s="192"/>
+      <c r="Q29" s="192"/>
       <c r="R29" s="100"/>
       <c r="S29" s="99"/>
       <c r="T29" s="99"/>
@@ -11620,31 +11828,31 @@
       <c r="D30" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="157" t="s">
+      <c r="E30" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="153" t="s">
+      <c r="F30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="L30" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="M30" s="153" t="s">
+      <c r="K30" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="183" t="s">
         <v>0</v>
       </c>
       <c r="N30" s="45" t="s">
@@ -11653,16 +11861,16 @@
       <c r="O30" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P30" s="160" t="s">
+      <c r="P30" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="Q30" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="R30" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="S30" s="160" t="s">
+      <c r="Q30" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="S30" s="187" t="s">
         <v>0</v>
       </c>
       <c r="T30" s="45" t="s">
@@ -11681,31 +11889,31 @@
       <c r="D31" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="157" t="s">
+      <c r="E31" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" s="153" t="s">
+      <c r="F31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" s="153" t="s">
+      <c r="K31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="183" t="s">
         <v>0</v>
       </c>
       <c r="N31" s="45" t="s">
@@ -11714,26 +11922,26 @@
       <c r="O31" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P31" s="153" t="s">
+      <c r="P31" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="Q31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="R31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="S31" s="153" t="s">
+      <c r="Q31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="R31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="S31" s="183" t="s">
         <v>0</v>
       </c>
       <c r="T31" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="U31" s="153" t="s">
+      <c r="U31" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="V31" s="153"/>
-      <c r="W31" s="153"/>
+      <c r="V31" s="183"/>
+      <c r="W31" s="183"/>
       <c r="X31" s="101"/>
       <c r="Y31" s="101"/>
       <c r="Z31" s="96"/>
@@ -11742,31 +11950,31 @@
       <c r="D32" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="157" t="s">
+      <c r="E32" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="153" t="s">
+      <c r="F32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" s="153" t="s">
+      <c r="K32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" s="183" t="s">
         <v>0</v>
       </c>
       <c r="N32" s="45" t="s">
@@ -11775,25 +11983,25 @@
       <c r="O32" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P32" s="153" t="s">
+      <c r="P32" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="Q32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="R32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="S32" s="153" t="s">
+      <c r="Q32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="S32" s="183" t="s">
         <v>0</v>
       </c>
       <c r="T32" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="U32" s="153" t="s">
+      <c r="U32" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="V32" s="153" t="s">
+      <c r="V32" s="183" t="s">
         <v>0</v>
       </c>
       <c r="W32" s="101"/>
@@ -11823,11 +12031,27 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="R10:Z10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:G28"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="E14:F16"/>
+    <mergeCell ref="E17:F19"/>
+    <mergeCell ref="E20:F22"/>
+    <mergeCell ref="E23:F25"/>
+    <mergeCell ref="E26:F28"/>
     <mergeCell ref="U31:W31"/>
     <mergeCell ref="E32:I32"/>
     <mergeCell ref="J32:M32"/>
@@ -11836,27 +12060,11 @@
     <mergeCell ref="E31:I31"/>
     <mergeCell ref="J31:M31"/>
     <mergeCell ref="P31:S31"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:G28"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="E14:F16"/>
-    <mergeCell ref="E17:F19"/>
-    <mergeCell ref="E20:F22"/>
-    <mergeCell ref="E23:F25"/>
-    <mergeCell ref="E26:F28"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="R10:Z10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="P30:S30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0" top="0.59055118110236227" bottom="0" header="0.19685039370078741" footer="0"/>
@@ -11872,8 +12080,8 @@
   </sheetPr>
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:V28"/>
+    <sheetView topLeftCell="G5" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -12929,16 +13137,16 @@
       <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="176" t="s">
+      <c r="J1" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="176" t="s">
+      <c r="K1" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="173" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -12956,11 +13164,11 @@
       <c r="R1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="177" t="s">
+      <c r="S1" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
       <c r="V1" s="6" t="s">
         <v>0</v>
       </c>
@@ -13108,15 +13316,15 @@
       <c r="AB3" s="82"/>
     </row>
     <row r="4" spans="1:28" ht="24" customHeight="1">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
       <c r="H4" s="172"/>
       <c r="I4" s="112" t="s">
         <v>128</v>
@@ -13166,16 +13374,16 @@
       <c r="AB4" s="82"/>
     </row>
     <row r="5" spans="1:28" ht="24" customHeight="1">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="156"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="169"/>
       <c r="I5" s="112" t="s">
         <v>48</v>
       </c>
@@ -13224,16 +13432,16 @@
       <c r="AB5" s="82"/>
     </row>
     <row r="6" spans="1:28" ht="24" customHeight="1">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="156"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="169"/>
       <c r="I6" s="112" t="s">
         <v>64</v>
       </c>
@@ -13272,16 +13480,16 @@
       <c r="AB6" s="82"/>
     </row>
     <row r="7" spans="1:28" ht="24" customHeight="1">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="156"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="169"/>
       <c r="I7" s="112" t="s">
         <v>66</v>
       </c>
@@ -13320,16 +13528,16 @@
       <c r="AB7" s="82"/>
     </row>
     <row r="8" spans="1:28" ht="24" customHeight="1">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="167" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="155"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="156"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="169"/>
       <c r="I8" s="112" t="s">
         <v>70</v>
       </c>
@@ -13365,16 +13573,16 @@
       <c r="AB8" s="82"/>
     </row>
     <row r="9" spans="1:28" ht="24" customHeight="1">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="167" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="155"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="156"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="169"/>
       <c r="I9" s="137" t="s">
         <v>120</v>
       </c>
@@ -13397,13 +13605,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="R9" s="195" t="s">
+      <c r="R9" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="196"/>
-      <c r="T9" s="196"/>
-      <c r="U9" s="196"/>
-      <c r="V9" s="197"/>
+      <c r="S9" s="199"/>
+      <c r="T9" s="199"/>
+      <c r="U9" s="199"/>
+      <c r="V9" s="200"/>
       <c r="W9" s="17">
         <f>SUM(W2:W8)+N10</f>
         <v>19</v>
@@ -13432,13 +13640,13 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="166" t="s">
+      <c r="I10" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="167"/>
-      <c r="M10" s="168"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="161"/>
       <c r="N10" s="17">
         <f>SUM(N2:N9)</f>
         <v>13</v>
@@ -13455,15 +13663,15 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="R10" s="166"/>
-      <c r="S10" s="167"/>
-      <c r="T10" s="167"/>
-      <c r="U10" s="167"/>
-      <c r="V10" s="167"/>
-      <c r="W10" s="167"/>
-      <c r="X10" s="167"/>
-      <c r="Y10" s="167"/>
-      <c r="Z10" s="168"/>
+      <c r="R10" s="159"/>
+      <c r="S10" s="160"/>
+      <c r="T10" s="160"/>
+      <c r="U10" s="160"/>
+      <c r="V10" s="160"/>
+      <c r="W10" s="160"/>
+      <c r="X10" s="160"/>
+      <c r="Y10" s="160"/>
+      <c r="Z10" s="161"/>
     </row>
     <row r="11" spans="1:28" ht="23.1" customHeight="1">
       <c r="D11" s="9"/>
@@ -13491,10 +13699,10 @@
       <c r="Z11" s="21"/>
     </row>
     <row r="12" spans="1:28" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="E12" s="161" t="s">
+      <c r="E12" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="162"/>
+      <c r="F12" s="163"/>
       <c r="G12" s="23" t="s">
         <v>10</v>
       </c>
@@ -13516,12 +13724,12 @@
       <c r="M12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="182" t="s">
+      <c r="N12" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="183"/>
-      <c r="P12" s="183"/>
-      <c r="Q12" s="184"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="165"/>
+      <c r="Q12" s="166"/>
       <c r="R12" s="25" t="s">
         <v>18</v>
       </c>
@@ -13543,50 +13751,50 @@
       <c r="Z12" s="26"/>
     </row>
     <row r="13" spans="1:28" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="E13" s="161" t="s">
+      <c r="E13" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="162"/>
-      <c r="G13" s="163" t="s">
+      <c r="F13" s="163"/>
+      <c r="G13" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="198">
+      <c r="H13" s="155">
         <v>1</v>
       </c>
-      <c r="I13" s="199">
+      <c r="I13" s="17">
         <v>2</v>
       </c>
-      <c r="J13" s="199">
+      <c r="J13" s="17">
         <v>3</v>
       </c>
-      <c r="K13" s="199">
+      <c r="K13" s="17">
         <v>4</v>
       </c>
-      <c r="L13" s="199">
+      <c r="L13" s="17">
         <v>5</v>
       </c>
-      <c r="M13" s="200">
+      <c r="M13" s="153">
         <v>6</v>
       </c>
-      <c r="N13" s="201">
+      <c r="N13" s="159">
         <v>7</v>
       </c>
-      <c r="O13" s="167"/>
-      <c r="P13" s="167"/>
-      <c r="Q13" s="168"/>
-      <c r="R13" s="202">
+      <c r="O13" s="160"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="154">
         <v>8</v>
       </c>
-      <c r="S13" s="199">
+      <c r="S13" s="17">
         <v>9</v>
       </c>
-      <c r="T13" s="199">
+      <c r="T13" s="17">
         <v>10</v>
       </c>
-      <c r="U13" s="199">
+      <c r="U13" s="17">
         <v>11</v>
       </c>
-      <c r="V13" s="199">
+      <c r="V13" s="17">
         <v>12</v>
       </c>
       <c r="W13" s="26"/>
@@ -13595,11 +13803,11 @@
       <c r="Z13" s="26"/>
     </row>
     <row r="14" spans="1:28" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E14" s="169" t="s">
+      <c r="E14" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="170"/>
-      <c r="G14" s="164"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="177"/>
       <c r="H14" s="78"/>
       <c r="I14" s="78"/>
       <c r="J14" s="78"/>
@@ -13621,9 +13829,9 @@
       <c r="Z14" s="26"/>
     </row>
     <row r="15" spans="1:28" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E15" s="171"/>
+      <c r="E15" s="170"/>
       <c r="F15" s="172"/>
-      <c r="G15" s="164"/>
+      <c r="G15" s="177"/>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
       <c r="J15" s="33"/>
@@ -13645,9 +13853,9 @@
       <c r="Z15" s="26"/>
     </row>
     <row r="16" spans="1:28" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E16" s="173"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="164"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="177"/>
       <c r="H16" s="57"/>
       <c r="I16" s="57"/>
       <c r="J16" s="57"/>
@@ -13669,11 +13877,11 @@
       <c r="Z16" s="26"/>
     </row>
     <row r="17" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E17" s="169" t="s">
+      <c r="E17" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="170"/>
-      <c r="G17" s="164"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="177"/>
       <c r="H17" s="78"/>
       <c r="I17" s="78"/>
       <c r="J17" s="78"/>
@@ -13695,9 +13903,9 @@
       <c r="Z17" s="26"/>
     </row>
     <row r="18" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E18" s="171"/>
+      <c r="E18" s="170"/>
       <c r="F18" s="172"/>
-      <c r="G18" s="164"/>
+      <c r="G18" s="177"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
@@ -13719,9 +13927,9 @@
       <c r="Z18" s="26"/>
     </row>
     <row r="19" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E19" s="173"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="164"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="177"/>
       <c r="H19" s="57"/>
       <c r="I19" s="57"/>
       <c r="J19" s="57"/>
@@ -13743,11 +13951,11 @@
       <c r="Z19" s="26"/>
     </row>
     <row r="20" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E20" s="169" t="s">
+      <c r="E20" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="170"/>
-      <c r="G20" s="164"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="177"/>
       <c r="H20" s="78"/>
       <c r="I20" s="78"/>
       <c r="J20" s="78"/>
@@ -13769,9 +13977,9 @@
       <c r="Z20" s="56"/>
     </row>
     <row r="21" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E21" s="171"/>
+      <c r="E21" s="170"/>
       <c r="F21" s="172"/>
-      <c r="G21" s="164"/>
+      <c r="G21" s="177"/>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
@@ -13793,9 +14001,9 @@
       <c r="Z21" s="26"/>
     </row>
     <row r="22" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E22" s="173"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="164"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="177"/>
       <c r="H22" s="57"/>
       <c r="I22" s="57"/>
       <c r="J22" s="57"/>
@@ -13817,11 +14025,11 @@
       <c r="Z22" s="26"/>
     </row>
     <row r="23" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E23" s="169" t="s">
+      <c r="E23" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="170"/>
-      <c r="G23" s="164"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="177"/>
       <c r="H23" s="78"/>
       <c r="I23" s="78"/>
       <c r="J23" s="78"/>
@@ -13843,9 +14051,9 @@
       <c r="Z23" s="26"/>
     </row>
     <row r="24" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E24" s="171"/>
+      <c r="E24" s="170"/>
       <c r="F24" s="172"/>
-      <c r="G24" s="164"/>
+      <c r="G24" s="177"/>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
@@ -13867,9 +14075,9 @@
       <c r="Z24" s="26"/>
     </row>
     <row r="25" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E25" s="173"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="164"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="177"/>
       <c r="H25" s="57"/>
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
@@ -13891,11 +14099,11 @@
       <c r="Z25" s="26"/>
     </row>
     <row r="26" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E26" s="169" t="s">
+      <c r="E26" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="170"/>
-      <c r="G26" s="164"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="177"/>
       <c r="H26" s="78"/>
       <c r="I26" s="78"/>
       <c r="J26" s="78"/>
@@ -13917,9 +14125,9 @@
       <c r="Z26" s="26"/>
     </row>
     <row r="27" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E27" s="171"/>
+      <c r="E27" s="170"/>
       <c r="F27" s="172"/>
-      <c r="G27" s="164"/>
+      <c r="G27" s="177"/>
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
       <c r="J27" s="33"/>
@@ -13941,9 +14149,9 @@
       <c r="Z27" s="26"/>
     </row>
     <row r="28" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E28" s="173"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="165"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="178"/>
       <c r="H28" s="57"/>
       <c r="I28" s="57"/>
       <c r="J28" s="57"/>
@@ -13965,9 +14173,9 @@
       <c r="Z28" s="26"/>
     </row>
     <row r="29" spans="4:26" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
       <c r="I29" s="43"/>
@@ -13975,10 +14183,10 @@
       <c r="K29" s="43"/>
       <c r="L29" s="43"/>
       <c r="M29" s="43"/>
-      <c r="N29" s="159"/>
-      <c r="O29" s="159"/>
-      <c r="P29" s="159"/>
-      <c r="Q29" s="159"/>
+      <c r="N29" s="186"/>
+      <c r="O29" s="186"/>
+      <c r="P29" s="186"/>
+      <c r="Q29" s="186"/>
       <c r="R29" s="44"/>
       <c r="S29" s="43"/>
       <c r="T29" s="43"/>
@@ -13993,31 +14201,31 @@
       <c r="D30" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="157" t="s">
+      <c r="E30" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="153" t="s">
+      <c r="F30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="L30" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="M30" s="153" t="s">
+      <c r="K30" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="183" t="s">
         <v>0</v>
       </c>
       <c r="N30" s="45" t="s">
@@ -14026,16 +14234,16 @@
       <c r="O30" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P30" s="160" t="s">
+      <c r="P30" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="Q30" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="R30" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="S30" s="160" t="s">
+      <c r="Q30" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="S30" s="187" t="s">
         <v>0</v>
       </c>
       <c r="T30" s="45" t="s">
@@ -14054,31 +14262,31 @@
       <c r="D31" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="157" t="s">
+      <c r="E31" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" s="153" t="s">
+      <c r="F31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" s="153" t="s">
+      <c r="K31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="183" t="s">
         <v>0</v>
       </c>
       <c r="N31" s="45" t="s">
@@ -14087,26 +14295,26 @@
       <c r="O31" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P31" s="153" t="s">
+      <c r="P31" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="Q31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="R31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="S31" s="153" t="s">
+      <c r="Q31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="R31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="S31" s="183" t="s">
         <v>0</v>
       </c>
       <c r="T31" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="U31" s="153" t="s">
+      <c r="U31" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="V31" s="153"/>
-      <c r="W31" s="153"/>
+      <c r="V31" s="183"/>
+      <c r="W31" s="183"/>
       <c r="X31" s="46"/>
       <c r="Y31" s="46"/>
       <c r="Z31" s="26"/>
@@ -14115,31 +14323,31 @@
       <c r="D32" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="157" t="s">
+      <c r="E32" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="153" t="s">
+      <c r="F32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" s="153" t="s">
+      <c r="K32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" s="183" t="s">
         <v>0</v>
       </c>
       <c r="N32" s="45" t="s">
@@ -14148,25 +14356,25 @@
       <c r="O32" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P32" s="153" t="s">
+      <c r="P32" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="Q32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="R32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="S32" s="153" t="s">
+      <c r="Q32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="S32" s="183" t="s">
         <v>0</v>
       </c>
       <c r="T32" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="U32" s="153" t="s">
+      <c r="U32" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="V32" s="153" t="s">
+      <c r="V32" s="183" t="s">
         <v>0</v>
       </c>
       <c r="W32" s="46"/>
@@ -14196,6 +14404,32 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="R10:Z10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:G28"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="E14:F16"/>
+    <mergeCell ref="E17:F19"/>
+    <mergeCell ref="E20:F22"/>
+    <mergeCell ref="E23:F25"/>
+    <mergeCell ref="E26:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="P30:S30"/>
     <mergeCell ref="E32:I32"/>
     <mergeCell ref="J32:M32"/>
     <mergeCell ref="P32:S32"/>
@@ -14204,32 +14438,6 @@
     <mergeCell ref="J31:M31"/>
     <mergeCell ref="P31:S31"/>
     <mergeCell ref="U31:W31"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:G28"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="E14:F16"/>
-    <mergeCell ref="E17:F19"/>
-    <mergeCell ref="E20:F22"/>
-    <mergeCell ref="E23:F25"/>
-    <mergeCell ref="E26:F28"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="R10:Z10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0" top="0.59055118110236227" bottom="0" header="0.19685039370078741" footer="0"/>
@@ -14245,8 +14453,8 @@
   </sheetPr>
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:V28"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -15298,16 +15506,16 @@
       <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="176" t="s">
+      <c r="J1" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="176" t="s">
+      <c r="K1" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="173" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -15325,11 +15533,11 @@
       <c r="R1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="177" t="s">
+      <c r="S1" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
       <c r="V1" s="6" t="s">
         <v>0</v>
       </c>
@@ -15449,15 +15657,15 @@
       <c r="AB3" s="82"/>
     </row>
     <row r="4" spans="1:28" ht="24" customHeight="1">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
       <c r="H4" s="172"/>
       <c r="I4" s="62" t="s">
         <v>119</v>
@@ -15493,16 +15701,16 @@
       <c r="AB4" s="82"/>
     </row>
     <row r="5" spans="1:28" ht="24" customHeight="1">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="156"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="169"/>
       <c r="I5" s="62" t="s">
         <v>55</v>
       </c>
@@ -15538,16 +15746,16 @@
       <c r="AB5" s="82"/>
     </row>
     <row r="6" spans="1:28" ht="24" customHeight="1">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="156"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="169"/>
       <c r="I6" s="62"/>
       <c r="J6" s="47"/>
       <c r="K6" s="48"/>
@@ -15570,16 +15778,16 @@
       <c r="AB6" s="82"/>
     </row>
     <row r="7" spans="1:28" ht="24" customHeight="1">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="156"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="169"/>
       <c r="I7" s="62"/>
       <c r="J7" s="47"/>
       <c r="K7" s="48"/>
@@ -15602,16 +15810,16 @@
       <c r="AB7" s="82"/>
     </row>
     <row r="8" spans="1:28" ht="24" customHeight="1">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="167" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="155"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="156"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="169"/>
       <c r="I8" s="62"/>
       <c r="J8" s="47"/>
       <c r="K8" s="48"/>
@@ -15634,16 +15842,16 @@
       <c r="AB8" s="82"/>
     </row>
     <row r="9" spans="1:28" ht="24" customHeight="1">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="167" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="155"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="156"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="169"/>
       <c r="I9" s="67"/>
       <c r="J9" s="75"/>
       <c r="K9" s="76"/>
@@ -15653,13 +15861,13 @@
       <c r="O9" s="13"/>
       <c r="P9" s="38"/>
       <c r="Q9" s="53"/>
-      <c r="R9" s="185" t="s">
+      <c r="R9" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="186"/>
-      <c r="T9" s="186"/>
-      <c r="U9" s="186"/>
-      <c r="V9" s="187"/>
+      <c r="S9" s="189"/>
+      <c r="T9" s="189"/>
+      <c r="U9" s="189"/>
+      <c r="V9" s="190"/>
       <c r="W9" s="144">
         <f>SUM(W2:W8)+N10</f>
         <v>0</v>
@@ -15688,13 +15896,13 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="166" t="s">
+      <c r="I10" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="167"/>
-      <c r="M10" s="168"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="161"/>
       <c r="N10" s="144">
         <f>SUM(N2:N9)</f>
         <v>0</v>
@@ -15711,15 +15919,15 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="R10" s="166"/>
-      <c r="S10" s="167"/>
-      <c r="T10" s="167"/>
-      <c r="U10" s="167"/>
-      <c r="V10" s="167"/>
-      <c r="W10" s="167"/>
-      <c r="X10" s="167"/>
-      <c r="Y10" s="167"/>
-      <c r="Z10" s="168"/>
+      <c r="R10" s="159"/>
+      <c r="S10" s="160"/>
+      <c r="T10" s="160"/>
+      <c r="U10" s="160"/>
+      <c r="V10" s="160"/>
+      <c r="W10" s="160"/>
+      <c r="X10" s="160"/>
+      <c r="Y10" s="160"/>
+      <c r="Z10" s="161"/>
     </row>
     <row r="11" spans="1:28" ht="23.1" customHeight="1">
       <c r="D11" s="9"/>
@@ -15747,10 +15955,10 @@
       <c r="Z11" s="21"/>
     </row>
     <row r="12" spans="1:28" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="E12" s="161" t="s">
+      <c r="E12" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="162"/>
+      <c r="F12" s="163"/>
       <c r="G12" s="23" t="s">
         <v>10</v>
       </c>
@@ -15772,12 +15980,12 @@
       <c r="M12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="182" t="s">
+      <c r="N12" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="183"/>
-      <c r="P12" s="183"/>
-      <c r="Q12" s="184"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="165"/>
+      <c r="Q12" s="166"/>
       <c r="R12" s="25" t="s">
         <v>18</v>
       </c>
@@ -15799,50 +16007,50 @@
       <c r="Z12" s="26"/>
     </row>
     <row r="13" spans="1:28" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="E13" s="161" t="s">
+      <c r="E13" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="162"/>
-      <c r="G13" s="163" t="s">
+      <c r="F13" s="163"/>
+      <c r="G13" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="198">
+      <c r="H13" s="155">
         <v>1</v>
       </c>
-      <c r="I13" s="199">
+      <c r="I13" s="17">
         <v>2</v>
       </c>
-      <c r="J13" s="199">
+      <c r="J13" s="17">
         <v>3</v>
       </c>
-      <c r="K13" s="199">
+      <c r="K13" s="17">
         <v>4</v>
       </c>
-      <c r="L13" s="199">
+      <c r="L13" s="17">
         <v>5</v>
       </c>
-      <c r="M13" s="200">
+      <c r="M13" s="153">
         <v>6</v>
       </c>
-      <c r="N13" s="201">
+      <c r="N13" s="159">
         <v>7</v>
       </c>
-      <c r="O13" s="167"/>
-      <c r="P13" s="167"/>
-      <c r="Q13" s="168"/>
-      <c r="R13" s="202">
+      <c r="O13" s="160"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="154">
         <v>8</v>
       </c>
-      <c r="S13" s="199">
+      <c r="S13" s="17">
         <v>9</v>
       </c>
-      <c r="T13" s="199">
+      <c r="T13" s="17">
         <v>10</v>
       </c>
-      <c r="U13" s="199">
+      <c r="U13" s="17">
         <v>11</v>
       </c>
-      <c r="V13" s="199">
+      <c r="V13" s="17">
         <v>12</v>
       </c>
       <c r="W13" s="26"/>
@@ -15851,11 +16059,11 @@
       <c r="Z13" s="26"/>
     </row>
     <row r="14" spans="1:28" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E14" s="169" t="s">
+      <c r="E14" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="170"/>
-      <c r="G14" s="164"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="177"/>
       <c r="H14" s="78"/>
       <c r="I14" s="78"/>
       <c r="J14" s="78"/>
@@ -15877,9 +16085,9 @@
       <c r="Z14" s="26"/>
     </row>
     <row r="15" spans="1:28" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E15" s="171"/>
+      <c r="E15" s="170"/>
       <c r="F15" s="172"/>
-      <c r="G15" s="164"/>
+      <c r="G15" s="177"/>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
       <c r="J15" s="33"/>
@@ -15901,9 +16109,9 @@
       <c r="Z15" s="26"/>
     </row>
     <row r="16" spans="1:28" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E16" s="173"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="164"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="177"/>
       <c r="H16" s="57"/>
       <c r="I16" s="57"/>
       <c r="J16" s="57"/>
@@ -15925,11 +16133,11 @@
       <c r="Z16" s="26"/>
     </row>
     <row r="17" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E17" s="169" t="s">
+      <c r="E17" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="170"/>
-      <c r="G17" s="164"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="177"/>
       <c r="H17" s="78"/>
       <c r="I17" s="78"/>
       <c r="J17" s="78"/>
@@ -15951,9 +16159,9 @@
       <c r="Z17" s="26"/>
     </row>
     <row r="18" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E18" s="171"/>
+      <c r="E18" s="170"/>
       <c r="F18" s="172"/>
-      <c r="G18" s="164"/>
+      <c r="G18" s="177"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
@@ -15975,9 +16183,9 @@
       <c r="Z18" s="26"/>
     </row>
     <row r="19" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E19" s="173"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="164"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="177"/>
       <c r="H19" s="57"/>
       <c r="I19" s="57"/>
       <c r="J19" s="57"/>
@@ -15999,11 +16207,11 @@
       <c r="Z19" s="26"/>
     </row>
     <row r="20" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E20" s="169" t="s">
+      <c r="E20" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="170"/>
-      <c r="G20" s="164"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="177"/>
       <c r="H20" s="78"/>
       <c r="I20" s="78"/>
       <c r="J20" s="78"/>
@@ -16025,9 +16233,9 @@
       <c r="Z20" s="56"/>
     </row>
     <row r="21" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E21" s="171"/>
+      <c r="E21" s="170"/>
       <c r="F21" s="172"/>
-      <c r="G21" s="164"/>
+      <c r="G21" s="177"/>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
@@ -16049,9 +16257,9 @@
       <c r="Z21" s="26"/>
     </row>
     <row r="22" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E22" s="173"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="164"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="177"/>
       <c r="H22" s="57"/>
       <c r="I22" s="57"/>
       <c r="J22" s="57"/>
@@ -16073,11 +16281,11 @@
       <c r="Z22" s="26"/>
     </row>
     <row r="23" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E23" s="169" t="s">
+      <c r="E23" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="170"/>
-      <c r="G23" s="164"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="177"/>
       <c r="H23" s="78"/>
       <c r="I23" s="78"/>
       <c r="J23" s="78"/>
@@ -16099,9 +16307,9 @@
       <c r="Z23" s="26"/>
     </row>
     <row r="24" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E24" s="171"/>
+      <c r="E24" s="170"/>
       <c r="F24" s="172"/>
-      <c r="G24" s="164"/>
+      <c r="G24" s="177"/>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
@@ -16123,9 +16331,9 @@
       <c r="Z24" s="26"/>
     </row>
     <row r="25" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E25" s="173"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="164"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="177"/>
       <c r="H25" s="57"/>
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
@@ -16147,11 +16355,11 @@
       <c r="Z25" s="26"/>
     </row>
     <row r="26" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E26" s="169" t="s">
+      <c r="E26" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="170"/>
-      <c r="G26" s="164"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="177"/>
       <c r="H26" s="78"/>
       <c r="I26" s="78"/>
       <c r="J26" s="78"/>
@@ -16173,9 +16381,9 @@
       <c r="Z26" s="26"/>
     </row>
     <row r="27" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E27" s="171"/>
+      <c r="E27" s="170"/>
       <c r="F27" s="172"/>
-      <c r="G27" s="164"/>
+      <c r="G27" s="177"/>
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
       <c r="J27" s="33"/>
@@ -16197,9 +16405,9 @@
       <c r="Z27" s="26"/>
     </row>
     <row r="28" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E28" s="173"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="165"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="178"/>
       <c r="H28" s="57"/>
       <c r="I28" s="57"/>
       <c r="J28" s="57"/>
@@ -16221,9 +16429,9 @@
       <c r="Z28" s="26"/>
     </row>
     <row r="29" spans="4:26" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
       <c r="I29" s="43"/>
@@ -16231,10 +16439,10 @@
       <c r="K29" s="43"/>
       <c r="L29" s="43"/>
       <c r="M29" s="43"/>
-      <c r="N29" s="159"/>
-      <c r="O29" s="159"/>
-      <c r="P29" s="159"/>
-      <c r="Q29" s="159"/>
+      <c r="N29" s="186"/>
+      <c r="O29" s="186"/>
+      <c r="P29" s="186"/>
+      <c r="Q29" s="186"/>
       <c r="R29" s="44"/>
       <c r="S29" s="43"/>
       <c r="T29" s="43"/>
@@ -16249,31 +16457,31 @@
       <c r="D30" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="157" t="s">
+      <c r="E30" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="153" t="s">
+      <c r="F30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="L30" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="M30" s="153" t="s">
+      <c r="K30" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="183" t="s">
         <v>0</v>
       </c>
       <c r="N30" s="45" t="s">
@@ -16282,16 +16490,16 @@
       <c r="O30" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P30" s="160" t="s">
+      <c r="P30" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="Q30" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="R30" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="S30" s="160" t="s">
+      <c r="Q30" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="S30" s="187" t="s">
         <v>0</v>
       </c>
       <c r="T30" s="45" t="s">
@@ -16310,31 +16518,31 @@
       <c r="D31" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="157" t="s">
+      <c r="E31" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" s="153" t="s">
+      <c r="F31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" s="153" t="s">
+      <c r="K31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="183" t="s">
         <v>0</v>
       </c>
       <c r="N31" s="45" t="s">
@@ -16343,26 +16551,26 @@
       <c r="O31" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P31" s="153" t="s">
+      <c r="P31" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="Q31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="R31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="S31" s="153" t="s">
+      <c r="Q31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="R31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="S31" s="183" t="s">
         <v>0</v>
       </c>
       <c r="T31" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="U31" s="153" t="s">
+      <c r="U31" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="V31" s="153"/>
-      <c r="W31" s="153"/>
+      <c r="V31" s="183"/>
+      <c r="W31" s="183"/>
       <c r="X31" s="46"/>
       <c r="Y31" s="46"/>
       <c r="Z31" s="26"/>
@@ -16371,31 +16579,31 @@
       <c r="D32" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="157" t="s">
+      <c r="E32" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="153" t="s">
+      <c r="F32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" s="153" t="s">
+      <c r="K32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" s="183" t="s">
         <v>0</v>
       </c>
       <c r="N32" s="45" t="s">
@@ -16404,25 +16612,25 @@
       <c r="O32" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P32" s="153" t="s">
+      <c r="P32" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="Q32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="R32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="S32" s="153" t="s">
+      <c r="Q32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="S32" s="183" t="s">
         <v>0</v>
       </c>
       <c r="T32" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="U32" s="153" t="s">
+      <c r="U32" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="V32" s="153" t="s">
+      <c r="V32" s="183" t="s">
         <v>0</v>
       </c>
       <c r="W32" s="46"/>
@@ -16452,6 +16660,32 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="R10:Z10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:G28"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="E14:F16"/>
+    <mergeCell ref="E17:F19"/>
+    <mergeCell ref="E20:F22"/>
+    <mergeCell ref="E23:F25"/>
+    <mergeCell ref="E26:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="P30:S30"/>
     <mergeCell ref="U31:W31"/>
     <mergeCell ref="E32:I32"/>
     <mergeCell ref="J32:M32"/>
@@ -16460,32 +16694,6 @@
     <mergeCell ref="E31:I31"/>
     <mergeCell ref="J31:M31"/>
     <mergeCell ref="P31:S31"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:G28"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="E14:F16"/>
-    <mergeCell ref="E17:F19"/>
-    <mergeCell ref="E20:F22"/>
-    <mergeCell ref="E23:F25"/>
-    <mergeCell ref="E26:F28"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="R10:Z10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0" top="0.59055118110236227" bottom="0" header="0.19685039370078741" footer="0"/>
@@ -17554,16 +17762,16 @@
       <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="176" t="s">
+      <c r="J1" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="176" t="s">
+      <c r="K1" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="173" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -17581,11 +17789,11 @@
       <c r="R1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="177" t="s">
+      <c r="S1" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
       <c r="V1" s="6" t="s">
         <v>0</v>
       </c>
@@ -17705,15 +17913,15 @@
       <c r="AB3" s="82"/>
     </row>
     <row r="4" spans="1:28" ht="24" customHeight="1">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
       <c r="H4" s="172"/>
       <c r="I4" s="62" t="s">
         <v>55</v>
@@ -17750,16 +17958,16 @@
       <c r="AB4" s="82"/>
     </row>
     <row r="5" spans="1:28" ht="24" customHeight="1">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="156"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="169"/>
       <c r="I5" s="62"/>
       <c r="J5" s="47"/>
       <c r="K5" s="48"/>
@@ -17782,16 +17990,16 @@
       <c r="AB5" s="82"/>
     </row>
     <row r="6" spans="1:28" ht="24" customHeight="1">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="156"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="169"/>
       <c r="I6" s="62"/>
       <c r="J6" s="47"/>
       <c r="K6" s="48"/>
@@ -17814,16 +18022,16 @@
       <c r="AB6" s="82"/>
     </row>
     <row r="7" spans="1:28" ht="24" customHeight="1">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="156"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="169"/>
       <c r="I7" s="62"/>
       <c r="J7" s="47"/>
       <c r="K7" s="48"/>
@@ -17846,16 +18054,16 @@
       <c r="AB7" s="82"/>
     </row>
     <row r="8" spans="1:28" ht="24" customHeight="1">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="167" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="155"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="156"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="169"/>
       <c r="I8" s="62"/>
       <c r="J8" s="47"/>
       <c r="K8" s="48"/>
@@ -17878,16 +18086,16 @@
       <c r="AB8" s="82"/>
     </row>
     <row r="9" spans="1:28" ht="24" customHeight="1">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="167" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="155"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="156"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="169"/>
       <c r="I9" s="67"/>
       <c r="J9" s="75"/>
       <c r="K9" s="76"/>
@@ -17897,13 +18105,13 @@
       <c r="O9" s="13"/>
       <c r="P9" s="38"/>
       <c r="Q9" s="53"/>
-      <c r="R9" s="185" t="s">
+      <c r="R9" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="186"/>
-      <c r="T9" s="186"/>
-      <c r="U9" s="186"/>
-      <c r="V9" s="187"/>
+      <c r="S9" s="189"/>
+      <c r="T9" s="189"/>
+      <c r="U9" s="189"/>
+      <c r="V9" s="190"/>
       <c r="W9" s="144">
         <f>SUM(W2:W8)+N10</f>
         <v>0</v>
@@ -17932,13 +18140,13 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="166" t="s">
+      <c r="I10" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="167"/>
-      <c r="M10" s="168"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="161"/>
       <c r="N10" s="144">
         <f>SUM(N2:N9)</f>
         <v>0</v>
@@ -17955,15 +18163,15 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="R10" s="166"/>
-      <c r="S10" s="167"/>
-      <c r="T10" s="167"/>
-      <c r="U10" s="167"/>
-      <c r="V10" s="167"/>
-      <c r="W10" s="167"/>
-      <c r="X10" s="167"/>
-      <c r="Y10" s="167"/>
-      <c r="Z10" s="168"/>
+      <c r="R10" s="159"/>
+      <c r="S10" s="160"/>
+      <c r="T10" s="160"/>
+      <c r="U10" s="160"/>
+      <c r="V10" s="160"/>
+      <c r="W10" s="160"/>
+      <c r="X10" s="160"/>
+      <c r="Y10" s="160"/>
+      <c r="Z10" s="161"/>
     </row>
     <row r="11" spans="1:28" ht="23.1" customHeight="1">
       <c r="D11" s="9"/>
@@ -17991,10 +18199,10 @@
       <c r="Z11" s="21"/>
     </row>
     <row r="12" spans="1:28" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="E12" s="161" t="s">
+      <c r="E12" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="162"/>
+      <c r="F12" s="163"/>
       <c r="G12" s="23" t="s">
         <v>10</v>
       </c>
@@ -18016,12 +18224,12 @@
       <c r="M12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="182" t="s">
+      <c r="N12" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="183"/>
-      <c r="P12" s="183"/>
-      <c r="Q12" s="184"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="165"/>
+      <c r="Q12" s="166"/>
       <c r="R12" s="25" t="s">
         <v>18</v>
       </c>
@@ -18043,50 +18251,50 @@
       <c r="Z12" s="26"/>
     </row>
     <row r="13" spans="1:28" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="E13" s="161" t="s">
+      <c r="E13" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="162"/>
-      <c r="G13" s="163" t="s">
+      <c r="F13" s="163"/>
+      <c r="G13" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="198">
+      <c r="H13" s="155">
         <v>1</v>
       </c>
-      <c r="I13" s="199">
+      <c r="I13" s="17">
         <v>2</v>
       </c>
-      <c r="J13" s="199">
+      <c r="J13" s="17">
         <v>3</v>
       </c>
-      <c r="K13" s="199">
+      <c r="K13" s="17">
         <v>4</v>
       </c>
-      <c r="L13" s="199">
+      <c r="L13" s="17">
         <v>5</v>
       </c>
-      <c r="M13" s="200">
+      <c r="M13" s="153">
         <v>6</v>
       </c>
-      <c r="N13" s="201">
+      <c r="N13" s="159">
         <v>7</v>
       </c>
-      <c r="O13" s="167"/>
-      <c r="P13" s="167"/>
-      <c r="Q13" s="168"/>
-      <c r="R13" s="202">
+      <c r="O13" s="160"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="154">
         <v>8</v>
       </c>
-      <c r="S13" s="199">
+      <c r="S13" s="17">
         <v>9</v>
       </c>
-      <c r="T13" s="199">
+      <c r="T13" s="17">
         <v>10</v>
       </c>
-      <c r="U13" s="199">
+      <c r="U13" s="17">
         <v>11</v>
       </c>
-      <c r="V13" s="199">
+      <c r="V13" s="17">
         <v>12</v>
       </c>
       <c r="W13" s="26"/>
@@ -18095,11 +18303,11 @@
       <c r="Z13" s="26"/>
     </row>
     <row r="14" spans="1:28" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E14" s="169" t="s">
+      <c r="E14" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="170"/>
-      <c r="G14" s="164"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="177"/>
       <c r="H14" s="78"/>
       <c r="I14" s="78"/>
       <c r="J14" s="78"/>
@@ -18121,9 +18329,9 @@
       <c r="Z14" s="26"/>
     </row>
     <row r="15" spans="1:28" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E15" s="171"/>
+      <c r="E15" s="170"/>
       <c r="F15" s="172"/>
-      <c r="G15" s="164"/>
+      <c r="G15" s="177"/>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
       <c r="J15" s="33"/>
@@ -18145,9 +18353,9 @@
       <c r="Z15" s="26"/>
     </row>
     <row r="16" spans="1:28" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E16" s="173"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="164"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="177"/>
       <c r="H16" s="57"/>
       <c r="I16" s="57"/>
       <c r="J16" s="57"/>
@@ -18169,11 +18377,11 @@
       <c r="Z16" s="26"/>
     </row>
     <row r="17" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E17" s="169" t="s">
+      <c r="E17" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="170"/>
-      <c r="G17" s="164"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="177"/>
       <c r="H17" s="78"/>
       <c r="I17" s="78"/>
       <c r="J17" s="78"/>
@@ -18195,9 +18403,9 @@
       <c r="Z17" s="26"/>
     </row>
     <row r="18" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E18" s="171"/>
+      <c r="E18" s="170"/>
       <c r="F18" s="172"/>
-      <c r="G18" s="164"/>
+      <c r="G18" s="177"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
@@ -18219,9 +18427,9 @@
       <c r="Z18" s="26"/>
     </row>
     <row r="19" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E19" s="173"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="164"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="177"/>
       <c r="H19" s="57"/>
       <c r="I19" s="57"/>
       <c r="J19" s="57"/>
@@ -18243,11 +18451,11 @@
       <c r="Z19" s="26"/>
     </row>
     <row r="20" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E20" s="169" t="s">
+      <c r="E20" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="170"/>
-      <c r="G20" s="164"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="177"/>
       <c r="H20" s="78"/>
       <c r="I20" s="78"/>
       <c r="J20" s="78"/>
@@ -18269,9 +18477,9 @@
       <c r="Z20" s="56"/>
     </row>
     <row r="21" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E21" s="171"/>
+      <c r="E21" s="170"/>
       <c r="F21" s="172"/>
-      <c r="G21" s="164"/>
+      <c r="G21" s="177"/>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
@@ -18293,9 +18501,9 @@
       <c r="Z21" s="26"/>
     </row>
     <row r="22" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E22" s="173"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="164"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="177"/>
       <c r="H22" s="57"/>
       <c r="I22" s="57"/>
       <c r="J22" s="57"/>
@@ -18317,11 +18525,11 @@
       <c r="Z22" s="26"/>
     </row>
     <row r="23" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E23" s="169" t="s">
+      <c r="E23" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="170"/>
-      <c r="G23" s="164"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="177"/>
       <c r="H23" s="78"/>
       <c r="I23" s="78"/>
       <c r="J23" s="78"/>
@@ -18343,9 +18551,9 @@
       <c r="Z23" s="26"/>
     </row>
     <row r="24" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E24" s="171"/>
+      <c r="E24" s="170"/>
       <c r="F24" s="172"/>
-      <c r="G24" s="164"/>
+      <c r="G24" s="177"/>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
@@ -18367,9 +18575,9 @@
       <c r="Z24" s="26"/>
     </row>
     <row r="25" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E25" s="173"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="164"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="177"/>
       <c r="H25" s="57"/>
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
@@ -18391,11 +18599,11 @@
       <c r="Z25" s="26"/>
     </row>
     <row r="26" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E26" s="169" t="s">
+      <c r="E26" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="170"/>
-      <c r="G26" s="164"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="177"/>
       <c r="H26" s="78"/>
       <c r="I26" s="78"/>
       <c r="J26" s="78"/>
@@ -18417,9 +18625,9 @@
       <c r="Z26" s="26"/>
     </row>
     <row r="27" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E27" s="171"/>
+      <c r="E27" s="170"/>
       <c r="F27" s="172"/>
-      <c r="G27" s="164"/>
+      <c r="G27" s="177"/>
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
       <c r="J27" s="33"/>
@@ -18441,9 +18649,9 @@
       <c r="Z27" s="26"/>
     </row>
     <row r="28" spans="4:26" s="22" customFormat="1" ht="21.9" customHeight="1">
-      <c r="E28" s="173"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="165"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="178"/>
       <c r="H28" s="57"/>
       <c r="I28" s="57"/>
       <c r="J28" s="57"/>
@@ -18465,9 +18673,9 @@
       <c r="Z28" s="26"/>
     </row>
     <row r="29" spans="4:26" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
       <c r="I29" s="43"/>
@@ -18475,10 +18683,10 @@
       <c r="K29" s="43"/>
       <c r="L29" s="43"/>
       <c r="M29" s="43"/>
-      <c r="N29" s="159"/>
-      <c r="O29" s="159"/>
-      <c r="P29" s="159"/>
-      <c r="Q29" s="159"/>
+      <c r="N29" s="186"/>
+      <c r="O29" s="186"/>
+      <c r="P29" s="186"/>
+      <c r="Q29" s="186"/>
       <c r="R29" s="44"/>
       <c r="S29" s="43"/>
       <c r="T29" s="43"/>
@@ -18493,31 +18701,31 @@
       <c r="D30" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="157" t="s">
+      <c r="E30" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="153" t="s">
+      <c r="F30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="L30" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="M30" s="153" t="s">
+      <c r="K30" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="183" t="s">
         <v>0</v>
       </c>
       <c r="N30" s="45" t="s">
@@ -18526,16 +18734,16 @@
       <c r="O30" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P30" s="160" t="s">
+      <c r="P30" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="Q30" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="R30" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="S30" s="160" t="s">
+      <c r="Q30" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="S30" s="187" t="s">
         <v>0</v>
       </c>
       <c r="T30" s="45" t="s">
@@ -18554,31 +18762,31 @@
       <c r="D31" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="157" t="s">
+      <c r="E31" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" s="153" t="s">
+      <c r="F31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" s="153" t="s">
+      <c r="K31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="183" t="s">
         <v>0</v>
       </c>
       <c r="N31" s="45" t="s">
@@ -18587,26 +18795,26 @@
       <c r="O31" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P31" s="153" t="s">
+      <c r="P31" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="Q31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="R31" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="S31" s="153" t="s">
+      <c r="Q31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="R31" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="S31" s="183" t="s">
         <v>0</v>
       </c>
       <c r="T31" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="U31" s="153" t="s">
+      <c r="U31" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="V31" s="153"/>
-      <c r="W31" s="153"/>
+      <c r="V31" s="183"/>
+      <c r="W31" s="183"/>
       <c r="X31" s="46"/>
       <c r="Y31" s="46"/>
       <c r="Z31" s="26"/>
@@ -18615,31 +18823,31 @@
       <c r="D32" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="157" t="s">
+      <c r="E32" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="153" t="s">
+      <c r="F32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" s="153" t="s">
+      <c r="K32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" s="183" t="s">
         <v>0</v>
       </c>
       <c r="N32" s="45" t="s">
@@ -18648,25 +18856,25 @@
       <c r="O32" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P32" s="153" t="s">
+      <c r="P32" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="Q32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="R32" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="S32" s="153" t="s">
+      <c r="Q32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="S32" s="183" t="s">
         <v>0</v>
       </c>
       <c r="T32" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="U32" s="153" t="s">
+      <c r="U32" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="V32" s="153" t="s">
+      <c r="V32" s="183" t="s">
         <v>0</v>
       </c>
       <c r="W32" s="46"/>
@@ -18696,6 +18904,33 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="R10:Z10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="E26:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="N29:Q29"/>
     <mergeCell ref="N13:Q13"/>
     <mergeCell ref="E14:F16"/>
     <mergeCell ref="E17:F19"/>
@@ -18703,33 +18938,6 @@
     <mergeCell ref="E23:F25"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:G28"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="E26:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="R10:Z10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="A9:H9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0" top="0.59055118110236227" bottom="0" header="0.19685039370078741" footer="0"/>
